--- a/100_Design/Design.xlsx
+++ b/100_Design/Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shavy\Desktop\Automated chessboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shavy\Desktop\Automated chessboard\100_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B85A8D-B6F6-40C1-B57D-FD4D45B2921B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F64219-51EF-4188-AB9A-4B5D6255C7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="757" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="757" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping AT2560" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mapping AT2560'!$B$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="526">
   <si>
     <t>P12V</t>
   </si>
@@ -495,9 +495,6 @@
     <t>µ0</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Poids magnet</t>
   </si>
   <si>
@@ -510,24 +507,12 @@
     <t>diamètre noyau electro aimant</t>
   </si>
   <si>
-    <t>Force nécessaire</t>
-  </si>
-  <si>
     <t>Poids pièce echec</t>
   </si>
   <si>
-    <t>Estimation force de l'électro aimant</t>
-  </si>
-  <si>
-    <t>Force électro aimant nécessaire</t>
-  </si>
-  <si>
     <t>Caractéristique Electro aimant</t>
   </si>
   <si>
-    <t>estimation approximative</t>
-  </si>
-  <si>
     <t>https://fr.aliexpress.com/item/1005004019122985.html?spm=a2g0o.productlist.main.1.3d11wybcwybcr7&amp;algo_pvid=8ee05f5c-1b23-47ab-bc32-cee8bd2adfcc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
   </si>
   <si>
@@ -1561,13 +1546,85 @@
   </si>
   <si>
     <t>Matrix LED max7219-dotmatrix-V02</t>
+  </si>
+  <si>
+    <t>hauteur noyau</t>
+  </si>
+  <si>
+    <t>diamètre noyau</t>
+  </si>
+  <si>
+    <t>Volume noyau</t>
+  </si>
+  <si>
+    <t>masse aimant</t>
+  </si>
+  <si>
+    <t>Force min</t>
+  </si>
+  <si>
+    <t>Desnité neodyme</t>
+  </si>
+  <si>
+    <t>Force frottement</t>
+  </si>
+  <si>
+    <t>Force inertie</t>
+  </si>
+  <si>
+    <t>coeff frottement plexiglas</t>
+  </si>
+  <si>
+    <t>acceleration aimant</t>
+  </si>
+  <si>
+    <t>Force aimant nécessaire</t>
+  </si>
+  <si>
+    <t>Force mécanique totale</t>
+  </si>
+  <si>
+    <t>Force au contact</t>
+  </si>
+  <si>
+    <t>Force a distance</t>
+  </si>
+  <si>
+    <t>distance aimant</t>
+  </si>
+  <si>
+    <t>Nombre de tour</t>
+  </si>
+  <si>
+    <t>ISO 60404-8-1</t>
+  </si>
+  <si>
+    <t>Induction rémanente</t>
+  </si>
+  <si>
+    <t>estimé</t>
+  </si>
+  <si>
+    <t>moment magnétique aimant</t>
+  </si>
+  <si>
+    <t>momen magnétique electro</t>
+  </si>
+  <si>
+    <t>Intéraction magnétique</t>
+  </si>
+  <si>
+    <t>Aire</t>
+  </si>
+  <si>
+    <t>coeff intéraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="27">
+  <numFmts count="34">
     <numFmt numFmtId="164" formatCode="General&quot;W&quot;"/>
     <numFmt numFmtId="165" formatCode="General&quot;A&quot;"/>
     <numFmt numFmtId="166" formatCode="General\ &quot;mm&quot;"/>
@@ -1595,6 +1652,13 @@
     <numFmt numFmtId="188" formatCode="General\ &quot;mV/G&quot;"/>
     <numFmt numFmtId="189" formatCode="General\ &quot;&quot;"/>
     <numFmt numFmtId="190" formatCode="General\ &quot;µsteps per mm&quot;"/>
+    <numFmt numFmtId="191" formatCode="General\ &quot;m3&quot;"/>
+    <numFmt numFmtId="192" formatCode="General\ &quot;Kg/m3&quot;"/>
+    <numFmt numFmtId="193" formatCode="General\ &quot;kg&quot;"/>
+    <numFmt numFmtId="194" formatCode="General\ &quot;m/s²&quot;"/>
+    <numFmt numFmtId="195" formatCode="General\ &quot;T&quot;"/>
+    <numFmt numFmtId="196" formatCode="General\ &quot;H/m&quot;"/>
+    <numFmt numFmtId="197" formatCode="General\ &quot;A/m²&quot;"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3051,7 +3115,7 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="384">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3398,8 +3462,6 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3652,8 +3714,6 @@
     <xf numFmtId="168" fontId="0" fillId="21" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="21" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="65" xfId="2" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="3" fillId="23" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="23" borderId="22" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="3" fillId="23" borderId="22" xfId="4" applyNumberFormat="1" applyBorder="1"/>
@@ -3800,6 +3860,24 @@
     <xf numFmtId="190" fontId="3" fillId="23" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="0" fillId="21" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="23" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="0" fillId="21" borderId="86" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="191" fontId="3" fillId="23" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="193" fontId="3" fillId="23" borderId="22" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="23" borderId="22" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="23" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="86" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="0" fillId="21" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="196" fontId="0" fillId="21" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="21" borderId="86" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="3" fillId="23" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="197" fontId="3" fillId="23" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="197" fontId="3" fillId="23" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3866,6 +3944,15 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3880,15 +3967,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3931,28 +4009,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5973,7 +6030,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D761C7E8-D64A-43CD-A469-EDD37682C50F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11281,94 +11338,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>234202</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>262994</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>32017</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5320552" y="1205192"/>
-          <a:ext cx="1552792" cy="579425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243168</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129989</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>739175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3805518" y="2073089"/>
-          <a:ext cx="5068007" cy="3130801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11766</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -11378,7 +11347,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>216076</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>131506</xdr:rowOff>
+      <xdr:rowOff>17206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11394,7 +11363,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11415,13 +11384,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>133328</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>3775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>20076</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>181216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11438,7 +11407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11459,13 +11428,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>753512</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>67594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11482,7 +11451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11830,1416 +11799,1416 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B1" s="330" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="331"/>
-      <c r="D1" s="332"/>
+      <c r="B1" s="344" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="345"/>
+      <c r="D1" s="346"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="218" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="219" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="220" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="221" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="220" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="260">
+        <v>1</v>
+      </c>
+      <c r="C3" s="261" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="262" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="263" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" s="264" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="160">
+        <v>2</v>
+      </c>
+      <c r="C4" s="216" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="217" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="160">
+        <v>3</v>
+      </c>
+      <c r="C5" s="216" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="217" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="160">
+        <v>4</v>
+      </c>
+      <c r="C6" s="216" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="217"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="139"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="255">
+        <v>5</v>
+      </c>
+      <c r="C7" s="256" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="257" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="258" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7" s="259" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="160">
+        <v>6</v>
+      </c>
+      <c r="C8" s="216" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="217" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="173">
+        <v>7</v>
+      </c>
+      <c r="C9" s="174" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="175" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="151" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="154">
+        <v>8</v>
+      </c>
+      <c r="C10" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="156"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="154">
+        <v>9</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="156"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="154">
+        <v>10</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="154">
+        <v>11</v>
+      </c>
+      <c r="C13" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="154">
+        <v>12</v>
+      </c>
+      <c r="C14" s="155" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="154">
+        <v>13</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="156" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="160">
+        <v>14</v>
+      </c>
+      <c r="C16" s="155" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="156"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="160">
+        <v>15</v>
+      </c>
+      <c r="C17" s="216" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="217" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="138"/>
+      <c r="F17" s="139"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="154">
+        <v>16</v>
+      </c>
+      <c r="C18" s="155" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="154">
+        <v>17</v>
+      </c>
+      <c r="C19" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="156" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="154">
+        <v>18</v>
+      </c>
+      <c r="C20" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="156" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="164">
+        <v>19</v>
+      </c>
+      <c r="C21" s="165" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="166" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="164">
+        <v>20</v>
+      </c>
+      <c r="C22" s="165" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="145" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="164">
+        <v>21</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="166" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="145" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="154">
+        <v>22</v>
+      </c>
+      <c r="C24" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="156" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="138"/>
+      <c r="F24" s="139"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="160">
+        <v>23</v>
+      </c>
+      <c r="C25" s="216" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="217" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="167">
+        <v>24</v>
+      </c>
+      <c r="C26" s="168" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="169" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="147" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="154">
+        <v>25</v>
+      </c>
+      <c r="C27" s="155" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="156" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="154">
+        <v>26</v>
+      </c>
+      <c r="C28" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="156" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="154">
+        <v>27</v>
+      </c>
+      <c r="C29" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="156"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="154">
+        <v>28</v>
+      </c>
+      <c r="C30" s="155" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="156"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="154">
+        <v>29</v>
+      </c>
+      <c r="C31" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="156"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="139"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="154">
+        <v>30</v>
+      </c>
+      <c r="C32" s="155" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="156" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="138"/>
+      <c r="F32" s="139"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="154">
+        <v>31</v>
+      </c>
+      <c r="C33" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="138"/>
+      <c r="F33" s="139"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="154">
+        <v>32</v>
+      </c>
+      <c r="C34" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="138"/>
+      <c r="F34" s="139"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="154">
+        <v>33</v>
+      </c>
+      <c r="C35" s="155" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="156" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="138"/>
+      <c r="F35" s="139"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="154">
+        <v>34</v>
+      </c>
+      <c r="C36" s="155" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="156" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="138"/>
+      <c r="F36" s="139"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="154">
+        <v>35</v>
+      </c>
+      <c r="C37" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="156" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="138"/>
+      <c r="F37" s="139"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="154">
+        <v>36</v>
+      </c>
+      <c r="C38" s="155" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="138"/>
+      <c r="F38" s="139"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="154">
+        <v>37</v>
+      </c>
+      <c r="C39" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="156" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="138"/>
+      <c r="F39" s="139"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="154">
+        <v>38</v>
+      </c>
+      <c r="C40" s="155" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="156" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="138"/>
+      <c r="F40" s="139"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="154">
+        <v>39</v>
+      </c>
+      <c r="C41" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="156" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="138"/>
+      <c r="F41" s="139"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="173">
+        <v>40</v>
+      </c>
+      <c r="C42" s="174" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="175" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="151" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="154">
+        <v>41</v>
+      </c>
+      <c r="C43" s="155" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="156" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="138"/>
+      <c r="F43" s="139"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="173">
+        <v>42</v>
+      </c>
+      <c r="C44" s="174" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="175" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="151" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="170">
+        <v>43</v>
+      </c>
+      <c r="C45" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="172" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="F45" s="149" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="170">
+        <v>44</v>
+      </c>
+      <c r="C46" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" s="149" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="161">
+        <v>45</v>
+      </c>
+      <c r="C47" s="162" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="163" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="161">
+        <v>46</v>
+      </c>
+      <c r="C48" s="162" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="163" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" s="143" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="154">
+        <v>47</v>
+      </c>
+      <c r="C49" s="155" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="156"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="139"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="154">
+        <v>48</v>
+      </c>
+      <c r="C50" s="155" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="156"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="139"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="154">
+        <v>49</v>
+      </c>
+      <c r="C51" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="156"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="139"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="154">
+        <v>50</v>
+      </c>
+      <c r="C52" s="155" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="156" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="138"/>
+      <c r="F52" s="139"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="154">
+        <v>51</v>
+      </c>
+      <c r="C53" s="155" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="156" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="138"/>
+      <c r="F53" s="139"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="173">
+        <v>52</v>
+      </c>
+      <c r="C54" s="174" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" s="175" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="151" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="154">
+        <v>53</v>
+      </c>
+      <c r="C55" s="155" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="156" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" s="138"/>
+      <c r="F55" s="139"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="157">
+        <v>54</v>
+      </c>
+      <c r="C56" s="158" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="159" t="s">
+        <v>268</v>
+      </c>
+      <c r="E56" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="F56" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="222" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="223" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="222" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="264">
-        <v>1</v>
-      </c>
-      <c r="C3" s="265" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="266" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="267" t="s">
-        <v>432</v>
-      </c>
-      <c r="F3" s="268" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="162">
-        <v>2</v>
-      </c>
-      <c r="C4" s="218" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="219" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="162">
-        <v>3</v>
-      </c>
-      <c r="C5" s="218" t="s">
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="154">
+        <v>55</v>
+      </c>
+      <c r="C57" s="155" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="156" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="138"/>
+      <c r="F57" s="139"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="157">
+        <v>56</v>
+      </c>
+      <c r="C58" s="158" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="159" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="141" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="219" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="141"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="162">
-        <v>4</v>
-      </c>
-      <c r="C6" s="218" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="141"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="259">
-        <v>5</v>
-      </c>
-      <c r="C7" s="260" t="s">
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="154">
+        <v>57</v>
+      </c>
+      <c r="C59" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59" s="156" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" s="138"/>
+      <c r="F59" s="139"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="154">
+        <v>58</v>
+      </c>
+      <c r="C60" s="155" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="156" t="s">
+        <v>276</v>
+      </c>
+      <c r="E60" s="138"/>
+      <c r="F60" s="139"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="154">
+        <v>59</v>
+      </c>
+      <c r="C61" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="156" t="s">
+        <v>278</v>
+      </c>
+      <c r="E61" s="138"/>
+      <c r="F61" s="139"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="157">
+        <v>60</v>
+      </c>
+      <c r="C62" s="158" t="s">
+        <v>279</v>
+      </c>
+      <c r="D62" s="159" t="s">
+        <v>280</v>
+      </c>
+      <c r="E62" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" s="141" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="154">
+        <v>61</v>
+      </c>
+      <c r="C63" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="138"/>
+      <c r="F63" s="139"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="154">
+        <v>62</v>
+      </c>
+      <c r="C64" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="138"/>
+      <c r="F64" s="139"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="160">
+        <v>63</v>
+      </c>
+      <c r="C65" s="216" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="217" t="s">
+        <v>282</v>
+      </c>
+      <c r="E65" s="138"/>
+      <c r="F65" s="139"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="173">
+        <v>64</v>
+      </c>
+      <c r="C66" s="174" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="175" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="151" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="154">
+        <v>65</v>
+      </c>
+      <c r="C67" s="155" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="156"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="139"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="154">
+        <v>66</v>
+      </c>
+      <c r="C68" s="155" t="s">
+        <v>288</v>
+      </c>
+      <c r="D68" s="156"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="139"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="154">
+        <v>67</v>
+      </c>
+      <c r="C69" s="155" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" s="156"/>
+      <c r="E69" s="138"/>
+      <c r="F69" s="139"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="154">
+        <v>68</v>
+      </c>
+      <c r="C70" s="155" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="156"/>
+      <c r="E70" s="138"/>
+      <c r="F70" s="139"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="154">
+        <v>69</v>
+      </c>
+      <c r="C71" s="155" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="156"/>
+      <c r="E71" s="138"/>
+      <c r="F71" s="139"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="154">
+        <v>70</v>
+      </c>
+      <c r="C72" s="155" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="156" t="s">
+        <v>293</v>
+      </c>
+      <c r="E72" s="138"/>
+      <c r="F72" s="139"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="154">
+        <v>71</v>
+      </c>
+      <c r="C73" s="155" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="156" t="s">
+        <v>295</v>
+      </c>
+      <c r="E73" s="138"/>
+      <c r="F73" s="139"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="157">
+        <v>72</v>
+      </c>
+      <c r="C74" s="158" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="159" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="261" t="s">
+      <c r="F74" s="141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="154">
+        <v>73</v>
+      </c>
+      <c r="C75" s="155" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="156" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" s="138"/>
+      <c r="F75" s="139"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="157">
+        <v>74</v>
+      </c>
+      <c r="C76" s="158" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="159" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="141" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="262" t="s">
-        <v>432</v>
-      </c>
-      <c r="F7" s="263" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="162">
-        <v>6</v>
-      </c>
-      <c r="C8" s="218" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="219" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="175">
-        <v>7</v>
-      </c>
-      <c r="C9" s="176" t="s">
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="160">
+        <v>75</v>
+      </c>
+      <c r="C77" s="216" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="217" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" s="139" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="160">
+        <v>76</v>
+      </c>
+      <c r="C78" s="216" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" s="217" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="138"/>
+      <c r="F78" s="139"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="157">
+        <v>77</v>
+      </c>
+      <c r="C79" s="158" t="s">
+        <v>306</v>
+      </c>
+      <c r="D79" s="159" t="s">
+        <v>307</v>
+      </c>
+      <c r="E79" s="140" t="s">
+        <v>394</v>
+      </c>
+      <c r="F79" s="141" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="160">
+        <v>78</v>
+      </c>
+      <c r="C80" s="216" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="217" t="s">
+        <v>309</v>
+      </c>
+      <c r="E80" s="138"/>
+      <c r="F80" s="139"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="154">
+        <v>79</v>
+      </c>
+      <c r="C81" s="155" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" s="156"/>
+      <c r="E81" s="138"/>
+      <c r="F81" s="139"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="154">
+        <v>80</v>
+      </c>
+      <c r="C82" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="177" t="s">
+      <c r="D82" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="138"/>
+      <c r="F82" s="139"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="154">
+        <v>81</v>
+      </c>
+      <c r="C83" s="155" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="D83" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" s="138"/>
+      <c r="F83" s="139"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="161">
+        <v>82</v>
+      </c>
+      <c r="C84" s="162" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="163" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" s="143" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="154">
+        <v>83</v>
+      </c>
+      <c r="C85" s="155" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" s="156" t="s">
+        <v>314</v>
+      </c>
+      <c r="E85" s="138"/>
+      <c r="F85" s="139"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="154">
+        <v>84</v>
+      </c>
+      <c r="C86" s="155" t="s">
+        <v>315</v>
+      </c>
+      <c r="D86" s="156" t="s">
+        <v>316</v>
+      </c>
+      <c r="E86" s="138"/>
+      <c r="F86" s="139"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="173">
+        <v>85</v>
+      </c>
+      <c r="C87" s="174" t="s">
+        <v>317</v>
+      </c>
+      <c r="D87" s="175" t="s">
+        <v>318</v>
+      </c>
+      <c r="E87" s="150" t="s">
+        <v>338</v>
+      </c>
+      <c r="F87" s="151" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="173">
+        <v>86</v>
+      </c>
+      <c r="C88" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" s="175" t="s">
+        <v>320</v>
+      </c>
+      <c r="E88" s="150" t="s">
+        <v>338</v>
+      </c>
+      <c r="F88" s="151" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="160">
+        <v>87</v>
+      </c>
+      <c r="C89" s="216" t="s">
+        <v>321</v>
+      </c>
+      <c r="D89" s="217" t="s">
+        <v>322</v>
+      </c>
+      <c r="E89" s="138"/>
+      <c r="F89" s="139"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="173">
+        <v>88</v>
+      </c>
+      <c r="C90" s="174" t="s">
+        <v>323</v>
+      </c>
+      <c r="D90" s="175" t="s">
+        <v>324</v>
+      </c>
+      <c r="E90" s="150" t="s">
+        <v>338</v>
+      </c>
+      <c r="F90" s="151" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="160">
+        <v>89</v>
+      </c>
+      <c r="C91" s="216" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" s="217" t="s">
+        <v>326</v>
+      </c>
+      <c r="E91" s="138"/>
+      <c r="F91" s="139"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="154">
+        <v>90</v>
+      </c>
+      <c r="C92" s="155" t="s">
+        <v>328</v>
+      </c>
+      <c r="D92" s="156" t="s">
+        <v>329</v>
+      </c>
+      <c r="E92" s="138"/>
+      <c r="F92" s="139"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="167">
+        <v>91</v>
+      </c>
+      <c r="C93" s="168" t="s">
+        <v>330</v>
+      </c>
+      <c r="D93" s="169" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="F93" s="147" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="173">
+        <v>92</v>
+      </c>
+      <c r="C94" s="174" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" s="175" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" s="150" t="s">
+        <v>338</v>
+      </c>
+      <c r="F94" s="151" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="173">
+        <v>93</v>
+      </c>
+      <c r="C95" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="D95" s="175" t="s">
+        <v>335</v>
+      </c>
+      <c r="E95" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="153" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="156">
-        <v>8</v>
-      </c>
-      <c r="C10" s="157" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="156">
-        <v>9</v>
-      </c>
-      <c r="C11" s="157" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="156">
-        <v>10</v>
-      </c>
-      <c r="C12" s="157" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="140"/>
-      <c r="F12" s="141"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="156">
-        <v>11</v>
-      </c>
-      <c r="C13" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="158" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="156">
-        <v>12</v>
-      </c>
-      <c r="C14" s="157" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="158" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="156">
-        <v>13</v>
-      </c>
-      <c r="C15" s="157" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="158" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="162">
-        <v>14</v>
-      </c>
-      <c r="C16" s="157" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="162">
-        <v>15</v>
-      </c>
-      <c r="C17" s="218" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="219" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="141"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="156">
-        <v>16</v>
-      </c>
-      <c r="C18" s="157" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="158" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="156">
-        <v>17</v>
-      </c>
-      <c r="C19" s="157" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="158" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="156">
-        <v>18</v>
-      </c>
-      <c r="C20" s="157" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="158" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="140"/>
-      <c r="F20" s="141"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="166">
-        <v>19</v>
-      </c>
-      <c r="C21" s="167" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" s="168" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="146" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="147" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="166">
-        <v>20</v>
-      </c>
-      <c r="C22" s="167" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="146" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="147" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="166">
-        <v>21</v>
-      </c>
-      <c r="C23" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="168" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" s="146" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="147" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="156">
-        <v>22</v>
-      </c>
-      <c r="C24" s="157" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="158" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="140"/>
-      <c r="F24" s="141"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="162">
-        <v>23</v>
-      </c>
-      <c r="C25" s="218" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="219" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="140"/>
-      <c r="F25" s="141"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="169">
-        <v>24</v>
-      </c>
-      <c r="C26" s="170" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="171" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" s="148" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="149" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="156">
-        <v>25</v>
-      </c>
-      <c r="C27" s="157" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" s="158" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="156">
-        <v>26</v>
-      </c>
-      <c r="C28" s="157" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="158" t="s">
-        <v>230</v>
-      </c>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="156">
-        <v>27</v>
-      </c>
-      <c r="C29" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="158"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="156">
-        <v>28</v>
-      </c>
-      <c r="C30" s="157" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="158"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="141"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="156">
-        <v>29</v>
-      </c>
-      <c r="C31" s="157" t="s">
-        <v>233</v>
-      </c>
-      <c r="D31" s="158"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="141"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="156">
-        <v>30</v>
-      </c>
-      <c r="C32" s="157" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" s="158" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="156">
-        <v>31</v>
-      </c>
-      <c r="C33" s="157" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="140"/>
-      <c r="F33" s="141"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="156">
-        <v>32</v>
-      </c>
-      <c r="C34" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="158" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="140"/>
-      <c r="F34" s="141"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="156">
-        <v>33</v>
-      </c>
-      <c r="C35" s="157" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="158" t="s">
-        <v>235</v>
-      </c>
-      <c r="E35" s="140"/>
-      <c r="F35" s="141"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="156">
-        <v>34</v>
-      </c>
-      <c r="C36" s="157" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="158" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="140"/>
-      <c r="F36" s="141"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="156">
-        <v>35</v>
-      </c>
-      <c r="C37" s="157" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="158" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="140"/>
-      <c r="F37" s="141"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="156">
-        <v>36</v>
-      </c>
-      <c r="C38" s="157" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" s="158" t="s">
-        <v>240</v>
-      </c>
-      <c r="E38" s="140"/>
-      <c r="F38" s="141"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="156">
-        <v>37</v>
-      </c>
-      <c r="C39" s="157" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="158" t="s">
-        <v>242</v>
-      </c>
-      <c r="E39" s="140"/>
-      <c r="F39" s="141"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="156">
-        <v>38</v>
-      </c>
-      <c r="C40" s="157" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" s="158" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="140"/>
-      <c r="F40" s="141"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="156">
-        <v>39</v>
-      </c>
-      <c r="C41" s="157" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="140"/>
-      <c r="F41" s="141"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="175">
-        <v>40</v>
-      </c>
-      <c r="C42" s="176" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="153" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="156">
-        <v>41</v>
-      </c>
-      <c r="C43" s="157" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="158" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" s="140"/>
-      <c r="F43" s="141"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="175">
-        <v>42</v>
-      </c>
-      <c r="C44" s="176" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="177" t="s">
-        <v>252</v>
-      </c>
-      <c r="E44" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="153" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="172">
-        <v>43</v>
-      </c>
-      <c r="C45" s="173" t="s">
-        <v>253</v>
-      </c>
-      <c r="D45" s="174" t="s">
-        <v>254</v>
-      </c>
-      <c r="E45" s="150" t="s">
-        <v>357</v>
-      </c>
-      <c r="F45" s="151" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="172">
-        <v>44</v>
-      </c>
-      <c r="C46" s="173" t="s">
-        <v>255</v>
-      </c>
-      <c r="D46" s="174" t="s">
-        <v>256</v>
-      </c>
-      <c r="E46" s="150" t="s">
-        <v>357</v>
-      </c>
-      <c r="F46" s="151" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="163">
-        <v>45</v>
-      </c>
-      <c r="C47" s="164" t="s">
-        <v>257</v>
-      </c>
-      <c r="D47" s="165" t="s">
-        <v>258</v>
-      </c>
-      <c r="E47" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="145" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="163">
-        <v>46</v>
-      </c>
-      <c r="C48" s="164" t="s">
-        <v>259</v>
-      </c>
-      <c r="D48" s="165" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="145" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="156">
-        <v>47</v>
-      </c>
-      <c r="C49" s="157" t="s">
-        <v>261</v>
-      </c>
-      <c r="D49" s="158"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="141"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="156">
-        <v>48</v>
-      </c>
-      <c r="C50" s="157" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="158"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="141"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="156">
-        <v>49</v>
-      </c>
-      <c r="C51" s="157" t="s">
-        <v>263</v>
-      </c>
-      <c r="D51" s="158"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="141"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="156">
-        <v>50</v>
-      </c>
-      <c r="C52" s="157" t="s">
-        <v>264</v>
-      </c>
-      <c r="D52" s="158" t="s">
-        <v>265</v>
-      </c>
-      <c r="E52" s="140"/>
-      <c r="F52" s="141"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="156">
-        <v>51</v>
-      </c>
-      <c r="C53" s="157" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="158" t="s">
-        <v>267</v>
-      </c>
-      <c r="E53" s="140"/>
-      <c r="F53" s="141"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="175">
-        <v>52</v>
-      </c>
-      <c r="C54" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54" s="177" t="s">
-        <v>269</v>
-      </c>
-      <c r="E54" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="153" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="156">
-        <v>53</v>
-      </c>
-      <c r="C55" s="157" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="158" t="s">
-        <v>271</v>
-      </c>
-      <c r="E55" s="140"/>
-      <c r="F55" s="141"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="159">
-        <v>54</v>
-      </c>
-      <c r="C56" s="160" t="s">
-        <v>272</v>
-      </c>
-      <c r="D56" s="161" t="s">
-        <v>273</v>
-      </c>
-      <c r="E56" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="156">
-        <v>55</v>
-      </c>
-      <c r="C57" s="157" t="s">
-        <v>274</v>
-      </c>
-      <c r="D57" s="158" t="s">
-        <v>275</v>
-      </c>
-      <c r="E57" s="140"/>
-      <c r="F57" s="141"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="159">
-        <v>56</v>
-      </c>
-      <c r="C58" s="160" t="s">
-        <v>276</v>
-      </c>
-      <c r="D58" s="161" t="s">
-        <v>277</v>
-      </c>
-      <c r="E58" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58" s="143" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="156">
-        <v>57</v>
-      </c>
-      <c r="C59" s="157" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="158" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="140"/>
-      <c r="F59" s="141"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="156">
-        <v>58</v>
-      </c>
-      <c r="C60" s="157" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="E60" s="140"/>
-      <c r="F60" s="141"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="156">
-        <v>59</v>
-      </c>
-      <c r="C61" s="157" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="158" t="s">
-        <v>283</v>
-      </c>
-      <c r="E61" s="140"/>
-      <c r="F61" s="141"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="159">
-        <v>60</v>
-      </c>
-      <c r="C62" s="160" t="s">
-        <v>284</v>
-      </c>
-      <c r="D62" s="161" t="s">
-        <v>285</v>
-      </c>
-      <c r="E62" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" s="143" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="156">
-        <v>61</v>
-      </c>
-      <c r="C63" s="157" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="E63" s="140"/>
-      <c r="F63" s="141"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="156">
-        <v>62</v>
-      </c>
-      <c r="C64" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" s="158" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" s="140"/>
-      <c r="F64" s="141"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="162">
-        <v>63</v>
-      </c>
-      <c r="C65" s="218" t="s">
-        <v>286</v>
-      </c>
-      <c r="D65" s="219" t="s">
-        <v>287</v>
-      </c>
-      <c r="E65" s="140"/>
-      <c r="F65" s="141"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="175">
-        <v>64</v>
-      </c>
-      <c r="C66" s="176" t="s">
-        <v>289</v>
-      </c>
-      <c r="D66" s="177" t="s">
-        <v>290</v>
-      </c>
-      <c r="E66" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="F66" s="153" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="156">
-        <v>65</v>
-      </c>
-      <c r="C67" s="157" t="s">
-        <v>292</v>
-      </c>
-      <c r="D67" s="158"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="141"/>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="156">
-        <v>66</v>
-      </c>
-      <c r="C68" s="157" t="s">
-        <v>293</v>
-      </c>
-      <c r="D68" s="158"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="141"/>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="156">
-        <v>67</v>
-      </c>
-      <c r="C69" s="157" t="s">
-        <v>294</v>
-      </c>
-      <c r="D69" s="158"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="141"/>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="156">
-        <v>68</v>
-      </c>
-      <c r="C70" s="157" t="s">
-        <v>295</v>
-      </c>
-      <c r="D70" s="158"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="141"/>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="156">
-        <v>69</v>
-      </c>
-      <c r="C71" s="157" t="s">
-        <v>296</v>
-      </c>
-      <c r="D71" s="158"/>
-      <c r="E71" s="140"/>
-      <c r="F71" s="141"/>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="156">
-        <v>70</v>
-      </c>
-      <c r="C72" s="157" t="s">
-        <v>297</v>
-      </c>
-      <c r="D72" s="158" t="s">
-        <v>298</v>
-      </c>
-      <c r="E72" s="140"/>
-      <c r="F72" s="141"/>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="156">
-        <v>71</v>
-      </c>
-      <c r="C73" s="157" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="158" t="s">
-        <v>300</v>
-      </c>
-      <c r="E73" s="140"/>
-      <c r="F73" s="141"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="159">
-        <v>72</v>
-      </c>
-      <c r="C74" s="160" t="s">
-        <v>301</v>
-      </c>
-      <c r="D74" s="161" t="s">
-        <v>302</v>
-      </c>
-      <c r="E74" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="F74" s="143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="156">
-        <v>73</v>
-      </c>
-      <c r="C75" s="157" t="s">
-        <v>303</v>
-      </c>
-      <c r="D75" s="158" t="s">
-        <v>304</v>
-      </c>
-      <c r="E75" s="140"/>
-      <c r="F75" s="141"/>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="159">
-        <v>74</v>
-      </c>
-      <c r="C76" s="160" t="s">
-        <v>305</v>
-      </c>
-      <c r="D76" s="161" t="s">
-        <v>306</v>
-      </c>
-      <c r="E76" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="F76" s="143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="162">
-        <v>75</v>
-      </c>
-      <c r="C77" s="218" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" s="219" t="s">
-        <v>308</v>
-      </c>
-      <c r="E77" s="140" t="s">
-        <v>123</v>
-      </c>
-      <c r="F77" s="141" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="162">
-        <v>76</v>
-      </c>
-      <c r="C78" s="218" t="s">
-        <v>309</v>
-      </c>
-      <c r="D78" s="219" t="s">
-        <v>310</v>
-      </c>
-      <c r="E78" s="140"/>
-      <c r="F78" s="141"/>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="159">
-        <v>77</v>
-      </c>
-      <c r="C79" s="160" t="s">
-        <v>311</v>
-      </c>
-      <c r="D79" s="161" t="s">
-        <v>312</v>
-      </c>
-      <c r="E79" s="142" t="s">
-        <v>399</v>
-      </c>
-      <c r="F79" s="143" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="162">
-        <v>78</v>
-      </c>
-      <c r="C80" s="218" t="s">
-        <v>313</v>
-      </c>
-      <c r="D80" s="219" t="s">
-        <v>314</v>
-      </c>
-      <c r="E80" s="140"/>
-      <c r="F80" s="141"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="156">
-        <v>79</v>
-      </c>
-      <c r="C81" s="157" t="s">
-        <v>315</v>
-      </c>
-      <c r="D81" s="158"/>
-      <c r="E81" s="140"/>
-      <c r="F81" s="141"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="156">
-        <v>80</v>
-      </c>
-      <c r="C82" s="157" t="s">
-        <v>190</v>
-      </c>
-      <c r="D82" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="E82" s="140"/>
-      <c r="F82" s="141"/>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="156">
-        <v>81</v>
-      </c>
-      <c r="C83" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="158" t="s">
-        <v>191</v>
-      </c>
-      <c r="E83" s="140"/>
-      <c r="F83" s="141"/>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="163">
-        <v>82</v>
-      </c>
-      <c r="C84" s="164" t="s">
-        <v>316</v>
-      </c>
-      <c r="D84" s="165" t="s">
-        <v>317</v>
-      </c>
-      <c r="E84" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="F84" s="145" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="156">
-        <v>83</v>
-      </c>
-      <c r="C85" s="157" t="s">
-        <v>318</v>
-      </c>
-      <c r="D85" s="158" t="s">
-        <v>319</v>
-      </c>
-      <c r="E85" s="140"/>
-      <c r="F85" s="141"/>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="156">
-        <v>84</v>
-      </c>
-      <c r="C86" s="157" t="s">
-        <v>320</v>
-      </c>
-      <c r="D86" s="158" t="s">
-        <v>321</v>
-      </c>
-      <c r="E86" s="140"/>
-      <c r="F86" s="141"/>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="175">
-        <v>85</v>
-      </c>
-      <c r="C87" s="176" t="s">
-        <v>322</v>
-      </c>
-      <c r="D87" s="177" t="s">
-        <v>323</v>
-      </c>
-      <c r="E87" s="152" t="s">
+      <c r="F95" s="151" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="160">
+        <v>94</v>
+      </c>
+      <c r="C96" s="216" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" s="217" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" s="138" t="s">
+        <v>488</v>
+      </c>
+      <c r="F96" s="139" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="160">
+        <v>95</v>
+      </c>
+      <c r="C97" s="216" t="s">
+        <v>340</v>
+      </c>
+      <c r="D97" s="217" t="s">
+        <v>341</v>
+      </c>
+      <c r="E97" s="138"/>
+      <c r="F97" s="139"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="160">
+        <v>96</v>
+      </c>
+      <c r="C98" s="216" t="s">
         <v>343</v>
       </c>
-      <c r="F87" s="153" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="175">
-        <v>86</v>
-      </c>
-      <c r="C88" s="176" t="s">
-        <v>324</v>
-      </c>
-      <c r="D88" s="177" t="s">
-        <v>325</v>
-      </c>
-      <c r="E88" s="152" t="s">
-        <v>343</v>
-      </c>
-      <c r="F88" s="153" t="s">
+      <c r="D98" s="217" t="s">
+        <v>344</v>
+      </c>
+      <c r="E98" s="138"/>
+      <c r="F98" s="139"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="160">
+        <v>97</v>
+      </c>
+      <c r="C99" s="216" t="s">
+        <v>346</v>
+      </c>
+      <c r="D99" s="217" t="s">
+        <v>347</v>
+      </c>
+      <c r="E99" s="138"/>
+      <c r="F99" s="139"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="154">
+        <v>98</v>
+      </c>
+      <c r="C100" s="155" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100" s="156" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="162">
-        <v>87</v>
-      </c>
-      <c r="C89" s="218" t="s">
-        <v>326</v>
-      </c>
-      <c r="D89" s="219" t="s">
-        <v>327</v>
-      </c>
-      <c r="E89" s="140"/>
-      <c r="F89" s="141"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="175">
-        <v>88</v>
-      </c>
-      <c r="C90" s="176" t="s">
-        <v>328</v>
-      </c>
-      <c r="D90" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="E90" s="152" t="s">
-        <v>343</v>
-      </c>
-      <c r="F90" s="153" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="162">
-        <v>89</v>
-      </c>
-      <c r="C91" s="218" t="s">
-        <v>330</v>
-      </c>
-      <c r="D91" s="219" t="s">
-        <v>331</v>
-      </c>
-      <c r="E91" s="140"/>
-      <c r="F91" s="141"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="156">
-        <v>90</v>
-      </c>
-      <c r="C92" s="157" t="s">
-        <v>333</v>
-      </c>
-      <c r="D92" s="158" t="s">
-        <v>334</v>
-      </c>
-      <c r="E92" s="140"/>
-      <c r="F92" s="141"/>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="169">
-        <v>91</v>
-      </c>
-      <c r="C93" s="170" t="s">
-        <v>335</v>
-      </c>
-      <c r="D93" s="171" t="s">
-        <v>336</v>
-      </c>
-      <c r="E93" s="148" t="s">
-        <v>221</v>
-      </c>
-      <c r="F93" s="149" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="175">
-        <v>92</v>
-      </c>
-      <c r="C94" s="176" t="s">
-        <v>337</v>
-      </c>
-      <c r="D94" s="177" t="s">
-        <v>338</v>
-      </c>
-      <c r="E94" s="152" t="s">
-        <v>343</v>
-      </c>
-      <c r="F94" s="153" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="175">
-        <v>93</v>
-      </c>
-      <c r="C95" s="176" t="s">
-        <v>339</v>
-      </c>
-      <c r="D95" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="E95" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="F95" s="153" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="162">
-        <v>94</v>
-      </c>
-      <c r="C96" s="218" t="s">
-        <v>341</v>
-      </c>
-      <c r="D96" s="219" t="s">
-        <v>342</v>
-      </c>
-      <c r="E96" s="140" t="s">
-        <v>493</v>
-      </c>
-      <c r="F96" s="141" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="162">
-        <v>95</v>
-      </c>
-      <c r="C97" s="218" t="s">
-        <v>345</v>
-      </c>
-      <c r="D97" s="219" t="s">
-        <v>346</v>
-      </c>
-      <c r="E97" s="140"/>
-      <c r="F97" s="141"/>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="162">
-        <v>96</v>
-      </c>
-      <c r="C98" s="218" t="s">
-        <v>348</v>
-      </c>
-      <c r="D98" s="219" t="s">
-        <v>349</v>
-      </c>
-      <c r="E98" s="140"/>
-      <c r="F98" s="141"/>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="162">
-        <v>97</v>
-      </c>
-      <c r="C99" s="218" t="s">
+      <c r="E100" s="138"/>
+      <c r="F100" s="139"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="154">
+        <v>99</v>
+      </c>
+      <c r="C101" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="138"/>
+      <c r="F101" s="139"/>
+    </row>
+    <row r="102" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B102" s="176">
+        <v>100</v>
+      </c>
+      <c r="C102" s="177" t="s">
         <v>351</v>
       </c>
-      <c r="D99" s="219" t="s">
-        <v>352</v>
-      </c>
-      <c r="E99" s="140"/>
-      <c r="F99" s="141"/>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="156">
-        <v>98</v>
-      </c>
-      <c r="C100" s="157" t="s">
-        <v>354</v>
-      </c>
-      <c r="D100" s="158" t="s">
-        <v>355</v>
-      </c>
-      <c r="E100" s="140"/>
-      <c r="F100" s="141"/>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="156">
-        <v>99</v>
-      </c>
-      <c r="C101" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="D101" s="158" t="s">
-        <v>191</v>
-      </c>
-      <c r="E101" s="140"/>
-      <c r="F101" s="141"/>
-    </row>
-    <row r="102" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B102" s="178">
-        <v>100</v>
-      </c>
-      <c r="C102" s="179" t="s">
-        <v>356</v>
-      </c>
-      <c r="D102" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="E102" s="154"/>
-      <c r="F102" s="155"/>
+      <c r="D102" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="E102" s="152"/>
+      <c r="F102" s="153"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{D3E4EB5C-3D7B-4C5E-B30D-15B7CDC7460B}"/>
@@ -13265,37 +13234,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B1" s="367" t="s">
+      <c r="B1" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="369"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="383"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B2" s="226" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="227" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="227" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="228" t="s">
-        <v>392</v>
+      <c r="B2" s="224" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="225" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="225" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="226" t="s">
+        <v>387</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="115" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>138</v>
@@ -13303,68 +13272,68 @@
       <c r="D3" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="214" t="s">
-        <v>395</v>
+      <c r="E3" s="212" t="s">
+        <v>390</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H3" s="212">
+        <v>382</v>
+      </c>
+      <c r="H3" s="210">
         <v>25</v>
       </c>
-      <c r="I3" s="212">
+      <c r="I3" s="210">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="365" t="s">
+      <c r="B4" s="379" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="365"/>
+      <c r="B5" s="379"/>
       <c r="C5" s="62" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>131</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="H5" s="215" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="H5" s="213" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="365"/>
+      <c r="B6" s="379"/>
       <c r="C6" s="62" t="s">
         <v>131</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="G6" s="215" t="s">
-        <v>398</v>
-      </c>
-      <c r="H6" s="216">
+        <v>389</v>
+      </c>
+      <c r="G6" s="213" t="s">
+        <v>393</v>
+      </c>
+      <c r="H6" s="214">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B7" s="366"/>
+      <c r="B7" s="380"/>
       <c r="C7" s="73" t="s">
         <v>131</v>
       </c>
@@ -13372,12 +13341,12 @@
         <v>131</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="215" t="s">
-        <v>397</v>
-      </c>
-      <c r="H7" s="216">
+        <v>391</v>
+      </c>
+      <c r="G7" s="213" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" s="214">
         <v>0.25</v>
       </c>
     </row>
@@ -13410,7 +13379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -13422,32 +13391,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="336" t="s">
+      <c r="B1" s="350" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="224" t="s">
+      <c r="C2" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="224" t="s">
+      <c r="D2" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="224" t="s">
+      <c r="E2" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="224" t="s">
+      <c r="F2" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="222" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13501,7 +13470,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="328" t="s">
+      <c r="B5" s="324" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
@@ -13524,7 +13493,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="328" t="s">
+      <c r="B6" s="324" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
@@ -13548,12 +13517,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="333" t="s">
+      <c r="B7" s="347" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="334"/>
-      <c r="D7" s="334"/>
-      <c r="E7" s="335"/>
+      <c r="C7" s="348"/>
+      <c r="D7" s="348"/>
+      <c r="E7" s="349"/>
       <c r="F7" s="2">
         <f>SUM(F3:F6)</f>
         <v>1.9720000000000002</v>
@@ -13564,39 +13533,39 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="336" t="s">
-        <v>504</v>
-      </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="336"/>
+      <c r="B9" s="350" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="350"/>
+      <c r="D9" s="350"/>
+      <c r="E9" s="350"/>
+      <c r="F9" s="350"/>
+      <c r="G9" s="350"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="224" t="s">
+      <c r="E10" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="224" t="s">
+      <c r="F10" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="224" t="s">
+      <c r="G10" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="186" t="s">
-        <v>451</v>
+      <c r="I10" s="184" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13650,8 +13619,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="328" t="s">
-        <v>506</v>
+      <c r="B13" s="324" t="s">
+        <v>501</v>
       </c>
       <c r="C13" s="2">
         <v>0.5</v>
@@ -13673,12 +13642,12 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="333" t="s">
+      <c r="B14" s="347" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="334"/>
-      <c r="D14" s="334"/>
-      <c r="E14" s="335"/>
+      <c r="C14" s="348"/>
+      <c r="D14" s="348"/>
+      <c r="E14" s="349"/>
       <c r="F14" s="2">
         <f>SUM(F11:F13)</f>
         <v>1.2600000000000002</v>
@@ -13689,35 +13658,35 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="336" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" s="336"/>
-      <c r="D16" s="336"/>
-      <c r="E16" s="336"/>
-      <c r="F16" s="336"/>
-      <c r="G16" s="336"/>
+      <c r="B16" s="350" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16" s="350"/>
+      <c r="D16" s="350"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="350"/>
+      <c r="G16" s="350"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="224" t="s">
+      <c r="B17" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="224" t="s">
+      <c r="C17" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="224" t="s">
+      <c r="D17" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="224" t="s">
+      <c r="E17" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="224" t="s">
+      <c r="F17" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="224" t="s">
+      <c r="G17" s="222" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13768,12 +13737,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="333" t="s">
+      <c r="B20" s="347" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="334"/>
-      <c r="D20" s="334"/>
-      <c r="E20" s="335"/>
+      <c r="C20" s="348"/>
+      <c r="D20" s="348"/>
+      <c r="E20" s="349"/>
       <c r="F20" s="2">
         <f>SUM(F18:F19)</f>
         <v>0.84000000000000008</v>
@@ -13784,7 +13753,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="G22" s="329"/>
+      <c r="G22" s="325"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13877,57 +13846,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:30" ht="15.75" thickBot="1">
-      <c r="V1" s="337" t="s">
-        <v>414</v>
-      </c>
-      <c r="W1" s="338"/>
-      <c r="X1" s="338"/>
-      <c r="Y1" s="338"/>
-      <c r="Z1" s="338"/>
-      <c r="AA1" s="338"/>
-      <c r="AB1" s="339"/>
+      <c r="V1" s="351" t="s">
+        <v>409</v>
+      </c>
+      <c r="W1" s="352"/>
+      <c r="X1" s="352"/>
+      <c r="Y1" s="352"/>
+      <c r="Z1" s="352"/>
+      <c r="AA1" s="352"/>
+      <c r="AB1" s="353"/>
       <c r="AD1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="3:30" ht="30" customHeight="1" thickBot="1">
       <c r="C2" s="10"/>
-      <c r="D2" s="340" t="s">
+      <c r="D2" s="354" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="342"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="355"/>
+      <c r="J2" s="355"/>
+      <c r="K2" s="355"/>
+      <c r="L2" s="355"/>
+      <c r="M2" s="355"/>
+      <c r="N2" s="356"/>
       <c r="O2" s="10"/>
       <c r="P2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="225" t="s">
+      <c r="V2" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="226" t="s">
+      <c r="W2" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="227" t="s">
+      <c r="X2" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="227" t="s">
+      <c r="Y2" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="228" t="s">
+      <c r="Z2" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="229" t="s">
+      <c r="AA2" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="230" t="s">
+      <c r="AB2" s="228" t="s">
         <v>118</v>
       </c>
     </row>
@@ -14033,7 +14002,7 @@
       </c>
       <c r="O5" s="12"/>
       <c r="Q5" s="20" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>47</v>
@@ -14315,7 +14284,7 @@
       </c>
       <c r="O11" s="12"/>
       <c r="Q11" s="106" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>53</v>
@@ -14465,19 +14434,19 @@
     </row>
     <row r="17" spans="1:28" ht="30" customHeight="1" thickBot="1">
       <c r="C17" s="10"/>
-      <c r="D17" s="340" t="s">
+      <c r="D17" s="354" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="341"/>
-      <c r="F17" s="341"/>
-      <c r="G17" s="341"/>
-      <c r="H17" s="341"/>
-      <c r="I17" s="341"/>
-      <c r="J17" s="341"/>
-      <c r="K17" s="341"/>
-      <c r="L17" s="341"/>
-      <c r="M17" s="341"/>
-      <c r="N17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="355"/>
+      <c r="G17" s="355"/>
+      <c r="H17" s="355"/>
+      <c r="I17" s="355"/>
+      <c r="J17" s="355"/>
+      <c r="K17" s="355"/>
+      <c r="L17" s="355"/>
+      <c r="M17" s="355"/>
+      <c r="N17" s="356"/>
       <c r="O17" s="10"/>
       <c r="V17" s="31" t="s">
         <v>59</v>
@@ -15054,19 +15023,19 @@
     </row>
     <row r="31" spans="1:28" ht="30" customHeight="1" thickBot="1">
       <c r="C31" s="10"/>
-      <c r="D31" s="340" t="s">
+      <c r="D31" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="341"/>
-      <c r="F31" s="341"/>
-      <c r="G31" s="341"/>
-      <c r="H31" s="341"/>
-      <c r="I31" s="341"/>
-      <c r="J31" s="341"/>
-      <c r="K31" s="341"/>
-      <c r="L31" s="341"/>
-      <c r="M31" s="341"/>
-      <c r="N31" s="342"/>
+      <c r="E31" s="355"/>
+      <c r="F31" s="355"/>
+      <c r="G31" s="355"/>
+      <c r="H31" s="355"/>
+      <c r="I31" s="355"/>
+      <c r="J31" s="355"/>
+      <c r="K31" s="355"/>
+      <c r="L31" s="355"/>
+      <c r="M31" s="355"/>
+      <c r="N31" s="356"/>
       <c r="O31" s="10"/>
       <c r="V31" s="31" t="s">
         <v>75</v>
@@ -15163,7 +15132,7 @@
         <v>-1</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="Q33" s="344" t="s">
+      <c r="Q33" s="358" t="s">
         <v>43</v>
       </c>
       <c r="V33" s="31" t="s">
@@ -15219,7 +15188,7 @@
       </c>
       <c r="O34" s="12"/>
       <c r="P34" s="37"/>
-      <c r="Q34" s="344"/>
+      <c r="Q34" s="358"/>
       <c r="V34" s="31" t="s">
         <v>78</v>
       </c>
@@ -15269,7 +15238,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="12"/>
-      <c r="Q35" s="345" t="s">
+      <c r="Q35" s="359" t="s">
         <v>42</v>
       </c>
       <c r="V35" s="31" t="s">
@@ -15322,7 +15291,7 @@
       </c>
       <c r="O36" s="12"/>
       <c r="P36" s="37"/>
-      <c r="Q36" s="345"/>
+      <c r="Q36" s="359"/>
       <c r="V36" s="31" t="s">
         <v>80</v>
       </c>
@@ -15372,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="12"/>
-      <c r="Q37" s="346" t="s">
+      <c r="Q37" s="360" t="s">
         <v>41</v>
       </c>
       <c r="V37" s="31" t="s">
@@ -15425,7 +15394,7 @@
       </c>
       <c r="O38" s="12"/>
       <c r="P38" s="37"/>
-      <c r="Q38" s="346"/>
+      <c r="Q38" s="360"/>
       <c r="V38" s="31" t="s">
         <v>82</v>
       </c>
@@ -15479,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="12"/>
-      <c r="Q39" s="343" t="s">
+      <c r="Q39" s="357" t="s">
         <v>122</v>
       </c>
       <c r="V39" s="31" t="s">
@@ -15536,7 +15505,7 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="38"/>
-      <c r="Q40" s="343"/>
+      <c r="Q40" s="357"/>
       <c r="V40" s="31" t="s">
         <v>84</v>
       </c>
@@ -15662,19 +15631,19 @@
     </row>
     <row r="45" spans="1:28" ht="30" customHeight="1" thickBot="1">
       <c r="C45" s="10"/>
-      <c r="D45" s="340" t="s">
-        <v>385</v>
-      </c>
-      <c r="E45" s="341"/>
-      <c r="F45" s="341"/>
-      <c r="G45" s="341"/>
-      <c r="H45" s="341"/>
-      <c r="I45" s="341"/>
-      <c r="J45" s="341"/>
-      <c r="K45" s="341"/>
-      <c r="L45" s="341"/>
-      <c r="M45" s="341"/>
-      <c r="N45" s="342"/>
+      <c r="D45" s="354" t="s">
+        <v>380</v>
+      </c>
+      <c r="E45" s="355"/>
+      <c r="F45" s="355"/>
+      <c r="G45" s="355"/>
+      <c r="H45" s="355"/>
+      <c r="I45" s="355"/>
+      <c r="J45" s="355"/>
+      <c r="K45" s="355"/>
+      <c r="L45" s="355"/>
+      <c r="M45" s="355"/>
+      <c r="N45" s="356"/>
       <c r="O45" s="10"/>
       <c r="V45" s="31" t="s">
         <v>89</v>
@@ -15739,7 +15708,7 @@
       <c r="A47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="258"/>
+      <c r="B47" s="254"/>
       <c r="C47" s="12"/>
       <c r="D47" s="21">
         <v>7</v>
@@ -15747,28 +15716,28 @@
       <c r="E47" s="13">
         <v>8</v>
       </c>
-      <c r="F47" s="198">
+      <c r="F47" s="196">
         <v>0</v>
       </c>
-      <c r="G47" s="202">
+      <c r="G47" s="200">
         <v>0</v>
       </c>
-      <c r="H47" s="202">
+      <c r="H47" s="200">
         <v>0</v>
       </c>
-      <c r="I47" s="202">
+      <c r="I47" s="200">
         <v>0</v>
       </c>
-      <c r="J47" s="205">
+      <c r="J47" s="203">
         <v>-1</v>
       </c>
-      <c r="K47" s="202">
+      <c r="K47" s="200">
         <v>0</v>
       </c>
-      <c r="L47" s="202">
+      <c r="L47" s="200">
         <v>0</v>
       </c>
-      <c r="M47" s="211">
+      <c r="M47" s="209">
         <v>0</v>
       </c>
       <c r="O47" s="12"/>
@@ -15792,7 +15761,7 @@
       <c r="A48" s="20">
         <v>-1</v>
       </c>
-      <c r="B48" s="258"/>
+      <c r="B48" s="254"/>
       <c r="C48" s="12"/>
       <c r="D48" s="21">
         <v>6</v>
@@ -15800,28 +15769,28 @@
       <c r="E48" s="14">
         <v>7</v>
       </c>
-      <c r="F48" s="199">
+      <c r="F48" s="197">
         <v>0</v>
       </c>
-      <c r="G48" s="200">
+      <c r="G48" s="198">
         <v>0</v>
       </c>
-      <c r="H48" s="200">
+      <c r="H48" s="198">
         <v>0</v>
       </c>
-      <c r="I48" s="200">
+      <c r="I48" s="198">
         <v>0</v>
       </c>
-      <c r="J48" s="200">
+      <c r="J48" s="198">
         <v>0</v>
       </c>
-      <c r="K48" s="200">
+      <c r="K48" s="198">
         <v>0</v>
       </c>
-      <c r="L48" s="200">
+      <c r="L48" s="198">
         <v>0</v>
       </c>
-      <c r="M48" s="204">
+      <c r="M48" s="202">
         <v>0</v>
       </c>
       <c r="O48" s="12"/>
@@ -15849,28 +15818,28 @@
       <c r="E49" s="14">
         <v>6</v>
       </c>
-      <c r="F49" s="199">
+      <c r="F49" s="197">
         <v>0</v>
       </c>
-      <c r="G49" s="200">
+      <c r="G49" s="198">
         <v>0</v>
       </c>
-      <c r="H49" s="207">
+      <c r="H49" s="205">
         <v>1</v>
       </c>
-      <c r="I49" s="200">
+      <c r="I49" s="198">
         <v>0</v>
       </c>
-      <c r="J49" s="206">
+      <c r="J49" s="204">
         <v>-1</v>
       </c>
-      <c r="K49" s="207">
+      <c r="K49" s="205">
         <v>1</v>
       </c>
-      <c r="L49" s="200">
+      <c r="L49" s="198">
         <v>0</v>
       </c>
-      <c r="M49" s="204">
+      <c r="M49" s="202">
         <v>0</v>
       </c>
       <c r="O49" s="12"/>
@@ -15898,28 +15867,28 @@
       <c r="E50" s="14">
         <v>5</v>
       </c>
-      <c r="F50" s="199">
+      <c r="F50" s="197">
         <v>0</v>
       </c>
-      <c r="G50" s="200">
+      <c r="G50" s="198">
         <v>0</v>
       </c>
-      <c r="H50" s="200">
+      <c r="H50" s="198">
         <v>0</v>
       </c>
-      <c r="I50" s="208">
+      <c r="I50" s="206">
         <v>0</v>
       </c>
-      <c r="J50" s="207">
+      <c r="J50" s="205">
         <v>1</v>
       </c>
-      <c r="K50" s="200">
+      <c r="K50" s="198">
         <v>0</v>
       </c>
-      <c r="L50" s="200">
+      <c r="L50" s="198">
         <v>0</v>
       </c>
-      <c r="M50" s="204">
+      <c r="M50" s="202">
         <v>0</v>
       </c>
       <c r="O50" s="12"/>
@@ -15947,28 +15916,28 @@
       <c r="E51" s="14">
         <v>4</v>
       </c>
-      <c r="F51" s="199">
+      <c r="F51" s="197">
         <v>0</v>
       </c>
-      <c r="G51" s="200">
+      <c r="G51" s="198">
         <v>0</v>
       </c>
-      <c r="H51" s="200">
+      <c r="H51" s="198">
         <v>0</v>
       </c>
-      <c r="I51" s="200">
+      <c r="I51" s="198">
         <v>0</v>
       </c>
-      <c r="J51" s="209">
+      <c r="J51" s="207">
         <v>1</v>
       </c>
-      <c r="K51" s="200">
+      <c r="K51" s="198">
         <v>0</v>
       </c>
-      <c r="L51" s="200">
+      <c r="L51" s="198">
         <v>0</v>
       </c>
-      <c r="M51" s="204">
+      <c r="M51" s="202">
         <v>0</v>
       </c>
       <c r="O51" s="12"/>
@@ -15996,28 +15965,28 @@
       <c r="E52" s="14">
         <v>3</v>
       </c>
-      <c r="F52" s="199">
+      <c r="F52" s="197">
         <v>0</v>
       </c>
-      <c r="G52" s="200">
+      <c r="G52" s="198">
         <v>0</v>
       </c>
-      <c r="H52" s="200">
+      <c r="H52" s="198">
         <v>0</v>
       </c>
-      <c r="I52" s="200">
+      <c r="I52" s="198">
         <v>0</v>
       </c>
-      <c r="J52" s="200">
+      <c r="J52" s="198">
         <v>0</v>
       </c>
-      <c r="K52" s="200">
+      <c r="K52" s="198">
         <v>0</v>
       </c>
-      <c r="L52" s="200">
+      <c r="L52" s="198">
         <v>0</v>
       </c>
-      <c r="M52" s="204">
+      <c r="M52" s="202">
         <v>0</v>
       </c>
       <c r="O52" s="12"/>
@@ -16049,28 +16018,28 @@
       <c r="E53" s="14">
         <v>2</v>
       </c>
-      <c r="F53" s="199">
+      <c r="F53" s="197">
         <v>0</v>
       </c>
-      <c r="G53" s="200">
+      <c r="G53" s="198">
         <v>0</v>
       </c>
-      <c r="H53" s="200">
+      <c r="H53" s="198">
         <v>0</v>
       </c>
-      <c r="I53" s="200">
+      <c r="I53" s="198">
         <v>0</v>
       </c>
-      <c r="J53" s="200">
+      <c r="J53" s="198">
         <v>0</v>
       </c>
-      <c r="K53" s="200">
+      <c r="K53" s="198">
         <v>0</v>
       </c>
-      <c r="L53" s="200">
+      <c r="L53" s="198">
         <v>0</v>
       </c>
-      <c r="M53" s="204">
+      <c r="M53" s="202">
         <v>0</v>
       </c>
       <c r="O53" s="12"/>
@@ -16102,28 +16071,28 @@
       <c r="E54" s="15">
         <v>1</v>
       </c>
-      <c r="F54" s="210">
+      <c r="F54" s="208">
         <v>0</v>
       </c>
-      <c r="G54" s="201">
+      <c r="G54" s="199">
         <v>0</v>
       </c>
-      <c r="H54" s="201">
+      <c r="H54" s="199">
         <v>0</v>
       </c>
-      <c r="I54" s="201">
+      <c r="I54" s="199">
         <v>0</v>
       </c>
-      <c r="J54" s="201">
+      <c r="J54" s="199">
         <v>0</v>
       </c>
-      <c r="K54" s="201">
+      <c r="K54" s="199">
         <v>0</v>
       </c>
-      <c r="L54" s="201">
+      <c r="L54" s="199">
         <v>0</v>
       </c>
-      <c r="M54" s="203">
+      <c r="M54" s="201">
         <v>0</v>
       </c>
       <c r="O54" s="12"/>
@@ -16234,8 +16203,8 @@
       </c>
     </row>
     <row r="58" spans="1:28" ht="30" customHeight="1">
-      <c r="C58" s="213" t="s">
-        <v>386</v>
+      <c r="C58" s="211" t="s">
+        <v>381</v>
       </c>
       <c r="V58" s="31" t="s">
         <v>102</v>
@@ -16254,8 +16223,8 @@
       </c>
     </row>
     <row r="59" spans="1:28" ht="30" customHeight="1">
-      <c r="C59" s="213" t="s">
-        <v>423</v>
+      <c r="C59" s="211" t="s">
+        <v>418</v>
       </c>
       <c r="V59" s="31" t="s">
         <v>103</v>
@@ -16431,82 +16400,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.75" thickBot="1">
-      <c r="A1" s="213" t="s">
-        <v>416</v>
-      </c>
-      <c r="N1" s="349" t="s">
-        <v>465</v>
-      </c>
-      <c r="O1" s="350"/>
-      <c r="P1" s="350"/>
-      <c r="Q1" s="350"/>
-      <c r="R1" s="350"/>
-      <c r="S1" s="350"/>
-      <c r="T1" s="350"/>
-      <c r="U1" s="350"/>
-      <c r="V1" s="350"/>
-      <c r="W1" s="350"/>
-      <c r="X1" s="350"/>
-      <c r="Y1" s="350"/>
-      <c r="Z1" s="351"/>
+      <c r="A1" s="211" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1" s="363" t="s">
+        <v>460</v>
+      </c>
+      <c r="O1" s="364"/>
+      <c r="P1" s="364"/>
+      <c r="Q1" s="364"/>
+      <c r="R1" s="364"/>
+      <c r="S1" s="364"/>
+      <c r="T1" s="364"/>
+      <c r="U1" s="364"/>
+      <c r="V1" s="364"/>
+      <c r="W1" s="364"/>
+      <c r="X1" s="364"/>
+      <c r="Y1" s="364"/>
+      <c r="Z1" s="365"/>
       <c r="AB1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF1" s="349" t="s">
-        <v>465</v>
-      </c>
-      <c r="AG1" s="350"/>
-      <c r="AH1" s="350"/>
-      <c r="AI1" s="350"/>
-      <c r="AJ1" s="350"/>
-      <c r="AK1" s="350"/>
-      <c r="AL1" s="350"/>
-      <c r="AM1" s="350"/>
-      <c r="AN1" s="350"/>
-      <c r="AO1" s="350"/>
-      <c r="AP1" s="350"/>
-      <c r="AQ1" s="350"/>
-      <c r="AR1" s="351"/>
+        <v>423</v>
+      </c>
+      <c r="AF1" s="363" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG1" s="364"/>
+      <c r="AH1" s="364"/>
+      <c r="AI1" s="364"/>
+      <c r="AJ1" s="364"/>
+      <c r="AK1" s="364"/>
+      <c r="AL1" s="364"/>
+      <c r="AM1" s="364"/>
+      <c r="AN1" s="364"/>
+      <c r="AO1" s="364"/>
+      <c r="AP1" s="364"/>
+      <c r="AQ1" s="364"/>
+      <c r="AR1" s="365"/>
       <c r="AT1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="19.5" thickBot="1">
       <c r="N2" s="10"/>
-      <c r="O2" s="340" t="s">
-        <v>426</v>
-      </c>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="341"/>
-      <c r="R2" s="341"/>
-      <c r="S2" s="341"/>
-      <c r="T2" s="341"/>
-      <c r="U2" s="341"/>
-      <c r="V2" s="341"/>
-      <c r="W2" s="341"/>
-      <c r="X2" s="341"/>
-      <c r="Y2" s="342"/>
+      <c r="O2" s="354" t="s">
+        <v>421</v>
+      </c>
+      <c r="P2" s="355"/>
+      <c r="Q2" s="355"/>
+      <c r="R2" s="355"/>
+      <c r="S2" s="355"/>
+      <c r="T2" s="355"/>
+      <c r="U2" s="355"/>
+      <c r="V2" s="355"/>
+      <c r="W2" s="355"/>
+      <c r="X2" s="355"/>
+      <c r="Y2" s="356"/>
       <c r="Z2" s="10"/>
       <c r="AB2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AF2" s="10"/>
-      <c r="AG2" s="340" t="s">
-        <v>426</v>
-      </c>
-      <c r="AH2" s="341"/>
-      <c r="AI2" s="341"/>
-      <c r="AJ2" s="341"/>
-      <c r="AK2" s="341"/>
-      <c r="AL2" s="341"/>
-      <c r="AM2" s="341"/>
-      <c r="AN2" s="341"/>
-      <c r="AO2" s="341"/>
-      <c r="AP2" s="341"/>
-      <c r="AQ2" s="342"/>
+      <c r="AG2" s="354" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH2" s="355"/>
+      <c r="AI2" s="355"/>
+      <c r="AJ2" s="355"/>
+      <c r="AK2" s="355"/>
+      <c r="AL2" s="355"/>
+      <c r="AM2" s="355"/>
+      <c r="AN2" s="355"/>
+      <c r="AO2" s="355"/>
+      <c r="AP2" s="355"/>
+      <c r="AQ2" s="356"/>
       <c r="AR2" s="10"/>
       <c r="AT2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.75" thickBot="1">
@@ -16536,10 +16505,10 @@
         <v>7</v>
       </c>
       <c r="Z3" s="12"/>
-      <c r="AB3" s="277" t="s">
-        <v>429</v>
-      </c>
-      <c r="AC3" s="278">
+      <c r="AB3" s="273" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC3" s="274">
         <f>MIN(Q17:X24)</f>
         <v>486</v>
       </c>
@@ -16569,10 +16538,10 @@
         <v>7</v>
       </c>
       <c r="AR3" s="12"/>
-      <c r="AT3" s="277" t="s">
-        <v>429</v>
-      </c>
-      <c r="AU3" s="278">
+      <c r="AT3" s="273" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU3" s="274">
         <f>MIN(AI17:AP24)</f>
         <v>580</v>
       </c>
@@ -16597,10 +16566,10 @@
       <c r="W4" s="84"/>
       <c r="X4" s="85"/>
       <c r="Z4" s="12"/>
-      <c r="AB4" s="279" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC4" s="280">
+      <c r="AB4" s="275" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC4" s="276">
         <f>MAX(Q17:X24)</f>
         <v>584</v>
       </c>
@@ -16623,19 +16592,19 @@
       <c r="AO4" s="84"/>
       <c r="AP4" s="85"/>
       <c r="AR4" s="12"/>
-      <c r="AT4" s="279" t="s">
-        <v>430</v>
-      </c>
-      <c r="AU4" s="280">
+      <c r="AT4" s="275" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU4" s="276">
         <f>MAX(AI17:AP24)</f>
         <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="15.75" thickBot="1">
-      <c r="B5" s="254" t="s">
-        <v>497</v>
-      </c>
-      <c r="C5" s="232">
+      <c r="B5" s="250" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="230">
         <v>6</v>
       </c>
       <c r="M5" s="20">
@@ -16678,10 +16647,10 @@
       <c r="AR5" s="12"/>
     </row>
     <row r="6" spans="1:47">
-      <c r="B6" s="254" t="s">
-        <v>498</v>
-      </c>
-      <c r="C6" s="316">
+      <c r="B6" s="250" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="312">
         <f>1.4*C5/5</f>
         <v>1.6799999999999997</v>
       </c>
@@ -16821,10 +16790,10 @@
       <c r="AR9" s="12"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" thickBot="1">
-      <c r="B10" s="347" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="348"/>
+      <c r="B10" s="361" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="362"/>
       <c r="M10" s="104" t="s">
         <v>37</v>
       </c>
@@ -16865,11 +16834,11 @@
       <c r="AR10" s="12"/>
     </row>
     <row r="11" spans="1:47" ht="15.75" thickBot="1">
-      <c r="B11" s="187" t="s">
-        <v>418</v>
-      </c>
-      <c r="C11" s="187" t="s">
-        <v>417</v>
+      <c r="B11" s="185" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="185" t="s">
+        <v>412</v>
       </c>
       <c r="M11" s="106">
         <v>1</v>
@@ -16891,7 +16860,7 @@
       <c r="X11" s="89"/>
       <c r="Z11" s="12"/>
       <c r="AA11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AE11" s="106">
         <v>1</v>
@@ -16913,14 +16882,14 @@
       <c r="AP11" s="89"/>
       <c r="AR11" s="12"/>
       <c r="AS11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="15.75" thickBot="1">
-      <c r="B12" s="254">
+      <c r="B12" s="250">
         <v>-1200</v>
       </c>
-      <c r="C12" s="232">
+      <c r="C12" s="230">
         <f>C6*B12/1000+C5/2</f>
         <v>0.98400000000000043</v>
       </c>
@@ -16978,10 +16947,10 @@
       <c r="AR12" s="12"/>
     </row>
     <row r="13" spans="1:47" ht="15.75" thickBot="1">
-      <c r="B13" s="254">
+      <c r="B13" s="250">
         <v>1200</v>
       </c>
-      <c r="C13" s="232">
+      <c r="C13" s="230">
         <f>C6*B13/1000+C5/2</f>
         <v>5.016</v>
       </c>
@@ -17017,50 +16986,50 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="255">
+      <c r="C15" s="251">
         <f>LINEST(C12:C13,B12:B13,10)</f>
         <v>1.6799999999999996E-3</v>
       </c>
       <c r="N15" s="10"/>
-      <c r="O15" s="340" t="s">
-        <v>425</v>
-      </c>
-      <c r="P15" s="341"/>
-      <c r="Q15" s="341"/>
-      <c r="R15" s="341"/>
-      <c r="S15" s="341"/>
-      <c r="T15" s="341"/>
-      <c r="U15" s="341"/>
-      <c r="V15" s="341"/>
-      <c r="W15" s="341"/>
-      <c r="X15" s="341"/>
-      <c r="Y15" s="342"/>
+      <c r="O15" s="354" t="s">
+        <v>420</v>
+      </c>
+      <c r="P15" s="355"/>
+      <c r="Q15" s="355"/>
+      <c r="R15" s="355"/>
+      <c r="S15" s="355"/>
+      <c r="T15" s="355"/>
+      <c r="U15" s="355"/>
+      <c r="V15" s="355"/>
+      <c r="W15" s="355"/>
+      <c r="X15" s="355"/>
+      <c r="Y15" s="356"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="296"/>
+      <c r="AB15" s="292"/>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="340" t="s">
-        <v>425</v>
-      </c>
-      <c r="AH15" s="341"/>
-      <c r="AI15" s="341"/>
-      <c r="AJ15" s="341"/>
-      <c r="AK15" s="341"/>
-      <c r="AL15" s="341"/>
-      <c r="AM15" s="341"/>
-      <c r="AN15" s="341"/>
-      <c r="AO15" s="341"/>
-      <c r="AP15" s="341"/>
-      <c r="AQ15" s="342"/>
+      <c r="AG15" s="354" t="s">
+        <v>420</v>
+      </c>
+      <c r="AH15" s="355"/>
+      <c r="AI15" s="355"/>
+      <c r="AJ15" s="355"/>
+      <c r="AK15" s="355"/>
+      <c r="AL15" s="355"/>
+      <c r="AM15" s="355"/>
+      <c r="AN15" s="355"/>
+      <c r="AO15" s="355"/>
+      <c r="AP15" s="355"/>
+      <c r="AQ15" s="356"/>
       <c r="AR15" s="10"/>
-      <c r="AT15" s="296" t="s">
-        <v>474</v>
+      <c r="AT15" s="292" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="15.75" thickBot="1">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="255">
+      <c r="C16" s="251">
         <f>INTERCEPT(C12:C13,B12:B13)</f>
         <v>3</v>
       </c>
@@ -17090,7 +17059,7 @@
         <v>7</v>
       </c>
       <c r="Z16" s="12"/>
-      <c r="AB16" s="256"/>
+      <c r="AB16" s="252"/>
       <c r="AF16" s="12"/>
       <c r="AI16" s="21">
         <v>0</v>
@@ -17117,7 +17086,7 @@
         <v>7</v>
       </c>
       <c r="AR16" s="12"/>
-      <c r="AT16" s="256"/>
+      <c r="AT16" s="252"/>
     </row>
     <row r="17" spans="2:46">
       <c r="M17" s="19" t="s">
@@ -17155,7 +17124,7 @@
         <v>549</v>
       </c>
       <c r="Z17" s="12"/>
-      <c r="AB17" s="256"/>
+      <c r="AB17" s="252"/>
       <c r="AE17" s="19" t="s">
         <v>35</v>
       </c>
@@ -17191,13 +17160,13 @@
         <v>648</v>
       </c>
       <c r="AR17" s="12"/>
-      <c r="AT17" s="256"/>
+      <c r="AT17" s="252"/>
     </row>
     <row r="18" spans="2:46" ht="15.75" thickBot="1">
       <c r="B18" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C18" s="247">
+        <v>414</v>
+      </c>
+      <c r="C18" s="245">
         <v>1</v>
       </c>
       <c r="M18" s="20">
@@ -17235,7 +17204,7 @@
         <v>517</v>
       </c>
       <c r="Z18" s="12"/>
-      <c r="AB18" s="256"/>
+      <c r="AB18" s="252"/>
       <c r="AE18" s="20">
         <v>-1</v>
       </c>
@@ -17271,17 +17240,17 @@
         <v>643</v>
       </c>
       <c r="AR18" s="12"/>
-      <c r="AT18" s="256"/>
+      <c r="AT18" s="252"/>
     </row>
     <row r="19" spans="2:46">
       <c r="B19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="255">
+      <c r="C19" s="251">
         <f>C15*C18+C16</f>
         <v>3.0016799999999999</v>
       </c>
-      <c r="I19" s="256"/>
+      <c r="I19" s="252"/>
       <c r="N19" s="12"/>
       <c r="O19" s="21">
         <v>5</v>
@@ -17314,7 +17283,7 @@
         <v>553</v>
       </c>
       <c r="Z19" s="12"/>
-      <c r="AB19" s="256"/>
+      <c r="AB19" s="252"/>
       <c r="AF19" s="12"/>
       <c r="AG19" s="21">
         <v>5</v>
@@ -17347,10 +17316,10 @@
         <v>646</v>
       </c>
       <c r="AR19" s="12"/>
-      <c r="AT19" s="256"/>
+      <c r="AT19" s="252"/>
     </row>
     <row r="20" spans="2:46">
-      <c r="I20" s="256"/>
+      <c r="I20" s="252"/>
       <c r="N20" s="12"/>
       <c r="O20" s="21">
         <v>4</v>
@@ -17358,7 +17327,7 @@
       <c r="P20" s="14">
         <v>5</v>
       </c>
-      <c r="Q20" s="257">
+      <c r="Q20" s="253">
         <v>533</v>
       </c>
       <c r="R20" s="5">
@@ -17383,7 +17352,7 @@
         <v>538</v>
       </c>
       <c r="Z20" s="12"/>
-      <c r="AB20" s="256"/>
+      <c r="AB20" s="252"/>
       <c r="AF20" s="12"/>
       <c r="AG20" s="21">
         <v>4</v>
@@ -17391,7 +17360,7 @@
       <c r="AH20" s="14">
         <v>5</v>
       </c>
-      <c r="AI20" s="257">
+      <c r="AI20" s="253">
         <v>611</v>
       </c>
       <c r="AJ20" s="5">
@@ -17416,10 +17385,10 @@
         <v>624</v>
       </c>
       <c r="AR20" s="12"/>
-      <c r="AT20" s="256"/>
+      <c r="AT20" s="252"/>
     </row>
     <row r="21" spans="2:46">
-      <c r="I21" s="256"/>
+      <c r="I21" s="252"/>
       <c r="N21" s="12"/>
       <c r="O21" s="21">
         <v>3</v>
@@ -17452,7 +17421,7 @@
         <v>510</v>
       </c>
       <c r="Z21" s="12"/>
-      <c r="AB21" s="256"/>
+      <c r="AB21" s="252"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="21">
         <v>3</v>
@@ -17485,10 +17454,10 @@
         <v>614</v>
       </c>
       <c r="AR21" s="12"/>
-      <c r="AT21" s="256"/>
+      <c r="AT21" s="252"/>
     </row>
     <row r="22" spans="2:46" ht="15.75" thickBot="1">
-      <c r="I22" s="256"/>
+      <c r="I22" s="252"/>
       <c r="N22" s="12"/>
       <c r="O22" s="21">
         <v>2</v>
@@ -17521,7 +17490,7 @@
         <v>556</v>
       </c>
       <c r="Z22" s="12"/>
-      <c r="AB22" s="256"/>
+      <c r="AB22" s="252"/>
       <c r="AF22" s="12"/>
       <c r="AG22" s="21">
         <v>2</v>
@@ -17554,10 +17523,10 @@
         <v>601</v>
       </c>
       <c r="AR22" s="12"/>
-      <c r="AT22" s="256"/>
+      <c r="AT22" s="252"/>
     </row>
     <row r="23" spans="2:46">
-      <c r="I23" s="256"/>
+      <c r="I23" s="252"/>
       <c r="M23" s="104" t="s">
         <v>37</v>
       </c>
@@ -17628,10 +17597,10 @@
         <v>617</v>
       </c>
       <c r="AR23" s="12"/>
-      <c r="AT23" s="256"/>
+      <c r="AT23" s="252"/>
     </row>
     <row r="24" spans="2:46" ht="15.75" thickBot="1">
-      <c r="I24" s="256"/>
+      <c r="I24" s="252"/>
       <c r="M24" s="106">
         <v>1</v>
       </c>
@@ -17668,7 +17637,7 @@
       </c>
       <c r="Z24" s="12"/>
       <c r="AA24" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AE24" s="106">
         <v>1</v>
@@ -17706,11 +17675,11 @@
       </c>
       <c r="AR24" s="12"/>
       <c r="AS24" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="2:46" ht="15.75" thickBot="1">
-      <c r="I25" s="256"/>
+      <c r="I25" s="252"/>
       <c r="N25" s="12"/>
       <c r="Q25" s="16" t="s">
         <v>15</v>
@@ -17765,7 +17734,7 @@
       <c r="AR25" s="12"/>
     </row>
     <row r="26" spans="2:46" ht="15.75" thickBot="1">
-      <c r="I26" s="256"/>
+      <c r="I26" s="252"/>
       <c r="N26" s="10"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -17796,34 +17765,34 @@
     <row r="27" spans="2:46" ht="15.75" thickBot="1"/>
     <row r="28" spans="2:46" ht="19.5" thickBot="1">
       <c r="N28" s="10"/>
-      <c r="O28" s="340" t="s">
-        <v>424</v>
-      </c>
-      <c r="P28" s="341"/>
-      <c r="Q28" s="341"/>
-      <c r="R28" s="341"/>
-      <c r="S28" s="341"/>
-      <c r="T28" s="341"/>
-      <c r="U28" s="341"/>
-      <c r="V28" s="341"/>
-      <c r="W28" s="341"/>
-      <c r="X28" s="341"/>
-      <c r="Y28" s="342"/>
+      <c r="O28" s="354" t="s">
+        <v>419</v>
+      </c>
+      <c r="P28" s="355"/>
+      <c r="Q28" s="355"/>
+      <c r="R28" s="355"/>
+      <c r="S28" s="355"/>
+      <c r="T28" s="355"/>
+      <c r="U28" s="355"/>
+      <c r="V28" s="355"/>
+      <c r="W28" s="355"/>
+      <c r="X28" s="355"/>
+      <c r="Y28" s="356"/>
       <c r="Z28" s="10"/>
       <c r="AF28" s="10"/>
-      <c r="AG28" s="340" t="s">
-        <v>424</v>
-      </c>
-      <c r="AH28" s="341"/>
-      <c r="AI28" s="341"/>
-      <c r="AJ28" s="341"/>
-      <c r="AK28" s="341"/>
-      <c r="AL28" s="341"/>
-      <c r="AM28" s="341"/>
-      <c r="AN28" s="341"/>
-      <c r="AO28" s="341"/>
-      <c r="AP28" s="341"/>
-      <c r="AQ28" s="342"/>
+      <c r="AG28" s="354" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH28" s="355"/>
+      <c r="AI28" s="355"/>
+      <c r="AJ28" s="355"/>
+      <c r="AK28" s="355"/>
+      <c r="AL28" s="355"/>
+      <c r="AM28" s="355"/>
+      <c r="AN28" s="355"/>
+      <c r="AO28" s="355"/>
+      <c r="AP28" s="355"/>
+      <c r="AQ28" s="356"/>
       <c r="AR28" s="10"/>
     </row>
     <row r="29" spans="2:46" ht="15.75" thickBot="1">
@@ -18157,7 +18126,7 @@
       <c r="X37" s="89"/>
       <c r="Z37" s="12"/>
       <c r="AA37" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AE37" s="106">
         <v>1</v>
@@ -18179,7 +18148,7 @@
       <c r="AP37" s="89"/>
       <c r="AR37" s="12"/>
       <c r="AS37" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="13:45" ht="15.75" thickBot="1">
@@ -18300,57 +18269,57 @@
   <sheetData>
     <row r="1" spans="2:58">
       <c r="B1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="2:58">
       <c r="B2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="15.75" thickBot="1">
       <c r="B3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="2:58" ht="15.75" thickBot="1">
-      <c r="AP4" s="352" t="s">
-        <v>485</v>
-      </c>
-      <c r="AQ4" s="353"/>
-      <c r="AR4" s="353"/>
-      <c r="AS4" s="353"/>
-      <c r="AT4" s="354"/>
+      <c r="AP4" s="369" t="s">
+        <v>480</v>
+      </c>
+      <c r="AQ4" s="370"/>
+      <c r="AR4" s="370"/>
+      <c r="AS4" s="370"/>
+      <c r="AT4" s="371"/>
     </row>
     <row r="5" spans="2:58">
       <c r="B5" t="s">
-        <v>473</v>
-      </c>
-      <c r="AP5" s="297"/>
-      <c r="AQ5" s="355" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR5" s="356"/>
-      <c r="AS5" s="355" t="s">
-        <v>487</v>
-      </c>
-      <c r="AT5" s="356"/>
+        <v>468</v>
+      </c>
+      <c r="AP5" s="293"/>
+      <c r="AQ5" s="372" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR5" s="373"/>
+      <c r="AS5" s="372" t="s">
+        <v>482</v>
+      </c>
+      <c r="AT5" s="373"/>
     </row>
     <row r="6" spans="2:58" ht="15.75" thickBot="1">
-      <c r="C6" s="213"/>
-      <c r="AP6" s="298" t="s">
-        <v>488</v>
-      </c>
-      <c r="AQ6" s="193" t="s">
-        <v>477</v>
-      </c>
-      <c r="AR6" s="195" t="s">
+      <c r="C6" s="211"/>
+      <c r="AP6" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ6" s="191" t="s">
+        <v>472</v>
+      </c>
+      <c r="AR6" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="AS6" s="193" t="s">
-        <v>477</v>
-      </c>
-      <c r="AT6" s="195" t="s">
+      <c r="AS6" s="191" t="s">
+        <v>472</v>
+      </c>
+      <c r="AT6" s="193" t="s">
         <v>140</v>
       </c>
     </row>
@@ -18403,23 +18372,23 @@
       <c r="AI7" s="108"/>
       <c r="AJ7" s="108"/>
       <c r="AK7" s="109"/>
-      <c r="AP7" s="311" t="s">
-        <v>476</v>
-      </c>
-      <c r="AQ7" s="299">
+      <c r="AP7" s="307" t="s">
+        <v>471</v>
+      </c>
+      <c r="AQ7" s="295">
         <v>1</v>
       </c>
-      <c r="AR7" s="307">
+      <c r="AR7" s="303">
         <v>0</v>
       </c>
-      <c r="AS7" s="299">
+      <c r="AS7" s="295">
         <v>1</v>
       </c>
-      <c r="AT7" s="300">
+      <c r="AT7" s="296">
         <v>1</v>
       </c>
       <c r="AV7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="2:58" ht="15.75" thickBot="1">
@@ -18427,92 +18396,92 @@
       <c r="S8" s="111"/>
       <c r="T8" s="110"/>
       <c r="AK8" s="111"/>
-      <c r="AP8" s="312" t="s">
-        <v>478</v>
-      </c>
-      <c r="AQ8" s="301">
+      <c r="AP8" s="308" t="s">
+        <v>473</v>
+      </c>
+      <c r="AQ8" s="297">
         <v>0</v>
       </c>
-      <c r="AR8" s="308">
+      <c r="AR8" s="304">
         <v>1</v>
       </c>
-      <c r="AS8" s="301">
+      <c r="AS8" s="297">
         <v>1</v>
       </c>
-      <c r="AT8" s="302">
+      <c r="AT8" s="298">
         <v>1</v>
       </c>
       <c r="AV8" t="s">
-        <v>490</v>
-      </c>
-      <c r="BF8" s="269"/>
+        <v>485</v>
+      </c>
+      <c r="BF8" s="265"/>
     </row>
     <row r="9" spans="2:58" ht="30" customHeight="1" thickBot="1">
       <c r="B9" s="110"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="340" t="s">
+      <c r="D9" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="341"/>
-      <c r="F9" s="341"/>
-      <c r="G9" s="341"/>
-      <c r="H9" s="341"/>
-      <c r="I9" s="341"/>
-      <c r="J9" s="341"/>
-      <c r="K9" s="341"/>
-      <c r="L9" s="341"/>
-      <c r="M9" s="341"/>
-      <c r="N9" s="342"/>
+      <c r="E9" s="355"/>
+      <c r="F9" s="355"/>
+      <c r="G9" s="355"/>
+      <c r="H9" s="355"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="355"/>
+      <c r="K9" s="355"/>
+      <c r="L9" s="355"/>
+      <c r="M9" s="355"/>
+      <c r="N9" s="356"/>
       <c r="O9" s="10"/>
       <c r="P9" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="357" t="s">
+      <c r="R9" s="366" t="s">
         <v>30</v>
       </c>
       <c r="S9" s="111"/>
       <c r="T9" s="110"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="340" t="s">
+      <c r="V9" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="W9" s="341"/>
-      <c r="X9" s="341"/>
-      <c r="Y9" s="341"/>
-      <c r="Z9" s="341"/>
-      <c r="AA9" s="341"/>
-      <c r="AB9" s="341"/>
-      <c r="AC9" s="341"/>
-      <c r="AD9" s="341"/>
-      <c r="AE9" s="341"/>
-      <c r="AF9" s="342"/>
+      <c r="W9" s="355"/>
+      <c r="X9" s="355"/>
+      <c r="Y9" s="355"/>
+      <c r="Z9" s="355"/>
+      <c r="AA9" s="355"/>
+      <c r="AB9" s="355"/>
+      <c r="AC9" s="355"/>
+      <c r="AD9" s="355"/>
+      <c r="AE9" s="355"/>
+      <c r="AF9" s="356"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AJ9" s="357" t="s">
+      <c r="AJ9" s="366" t="s">
         <v>30</v>
       </c>
       <c r="AK9" s="111"/>
-      <c r="AP9" s="311" t="s">
-        <v>479</v>
-      </c>
-      <c r="AQ9" s="299">
+      <c r="AP9" s="307" t="s">
+        <v>474</v>
+      </c>
+      <c r="AQ9" s="295">
         <v>0</v>
       </c>
-      <c r="AR9" s="307">
+      <c r="AR9" s="303">
         <v>0</v>
       </c>
-      <c r="AS9" s="299">
+      <c r="AS9" s="295">
         <v>1</v>
       </c>
-      <c r="AT9" s="300">
+      <c r="AT9" s="296">
         <v>1</v>
       </c>
       <c r="AV9" t="s">
-        <v>491</v>
-      </c>
-      <c r="BF9" s="269"/>
+        <v>486</v>
+      </c>
+      <c r="BF9" s="265"/>
     </row>
     <row r="10" spans="2:58" ht="30" customHeight="1" thickBot="1">
       <c r="B10" s="110"/>
@@ -18520,44 +18489,44 @@
       <c r="G10" s="51"/>
       <c r="O10" s="12"/>
       <c r="P10" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="R10" s="358"/>
+      <c r="R10" s="367"/>
       <c r="S10" s="111"/>
       <c r="T10" s="110"/>
       <c r="U10" s="12"/>
       <c r="AD10" s="51"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AI10" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AJ10" s="358"/>
+      <c r="AJ10" s="367"/>
       <c r="AK10" s="111"/>
-      <c r="AP10" s="312" t="s">
-        <v>480</v>
-      </c>
-      <c r="AQ10" s="301">
+      <c r="AP10" s="308" t="s">
+        <v>475</v>
+      </c>
+      <c r="AQ10" s="297">
         <v>1</v>
       </c>
-      <c r="AR10" s="308">
+      <c r="AR10" s="304">
         <v>1</v>
       </c>
-      <c r="AS10" s="301">
+      <c r="AS10" s="297">
         <v>1</v>
       </c>
-      <c r="AT10" s="302">
+      <c r="AT10" s="298">
         <v>1</v>
       </c>
       <c r="AV10" t="s">
-        <v>492</v>
-      </c>
-      <c r="BF10" s="269"/>
+        <v>487</v>
+      </c>
+      <c r="BF10" s="265"/>
     </row>
     <row r="11" spans="2:58" ht="30" customHeight="1" thickBot="1">
       <c r="B11" s="110"/>
@@ -18575,7 +18544,7 @@
       <c r="M11" s="67"/>
       <c r="O11" s="12"/>
       <c r="P11" s="20"/>
-      <c r="R11" s="359"/>
+      <c r="R11" s="368"/>
       <c r="S11" s="111"/>
       <c r="T11" s="110"/>
       <c r="U11" s="12"/>
@@ -18592,24 +18561,24 @@
       <c r="AE11" s="67"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="20"/>
-      <c r="AJ11" s="359"/>
+      <c r="AJ11" s="368"/>
       <c r="AK11" s="111"/>
-      <c r="AP11" s="313" t="s">
-        <v>481</v>
-      </c>
-      <c r="AQ11" s="303">
+      <c r="AP11" s="309" t="s">
+        <v>476</v>
+      </c>
+      <c r="AQ11" s="299">
         <v>0</v>
       </c>
-      <c r="AR11" s="309">
+      <c r="AR11" s="305">
         <v>0</v>
       </c>
-      <c r="AS11" s="303">
+      <c r="AS11" s="299">
         <v>0</v>
       </c>
-      <c r="AT11" s="304">
+      <c r="AT11" s="300">
         <v>1</v>
       </c>
-      <c r="BF11" s="269"/>
+      <c r="BF11" s="265"/>
     </row>
     <row r="12" spans="2:58" ht="30" customHeight="1">
       <c r="B12" s="110"/>
@@ -18642,22 +18611,22 @@
       <c r="AE12" s="24"/>
       <c r="AG12" s="12"/>
       <c r="AK12" s="111"/>
-      <c r="AP12" s="314" t="s">
-        <v>482</v>
-      </c>
-      <c r="AQ12" s="305">
+      <c r="AP12" s="310" t="s">
+        <v>477</v>
+      </c>
+      <c r="AQ12" s="301">
         <v>0</v>
       </c>
-      <c r="AR12" s="310">
+      <c r="AR12" s="306">
         <v>1</v>
       </c>
-      <c r="AS12" s="305">
+      <c r="AS12" s="301">
         <v>0</v>
       </c>
-      <c r="AT12" s="306">
+      <c r="AT12" s="302">
         <v>1</v>
       </c>
-      <c r="BF12" s="269"/>
+      <c r="BF12" s="265"/>
     </row>
     <row r="13" spans="2:58" ht="30" customHeight="1">
       <c r="B13" s="110"/>
@@ -18690,22 +18659,22 @@
       <c r="AE13" s="69"/>
       <c r="AG13" s="12"/>
       <c r="AK13" s="111"/>
-      <c r="AP13" s="314" t="s">
-        <v>483</v>
-      </c>
-      <c r="AQ13" s="305">
+      <c r="AP13" s="310" t="s">
+        <v>478</v>
+      </c>
+      <c r="AQ13" s="301">
         <v>1</v>
       </c>
-      <c r="AR13" s="310">
+      <c r="AR13" s="306">
         <v>0</v>
       </c>
-      <c r="AS13" s="305">
+      <c r="AS13" s="301">
         <v>1</v>
       </c>
-      <c r="AT13" s="306">
+      <c r="AT13" s="302">
         <v>0</v>
       </c>
-      <c r="BF13" s="269"/>
+      <c r="BF13" s="265"/>
     </row>
     <row r="14" spans="2:58" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="110"/>
@@ -18738,19 +18707,19 @@
       <c r="AE14" s="69"/>
       <c r="AG14" s="12"/>
       <c r="AK14" s="111"/>
-      <c r="AP14" s="312" t="s">
-        <v>484</v>
-      </c>
-      <c r="AQ14" s="301">
+      <c r="AP14" s="308" t="s">
+        <v>479</v>
+      </c>
+      <c r="AQ14" s="297">
         <v>0</v>
       </c>
-      <c r="AR14" s="308">
+      <c r="AR14" s="304">
         <v>0</v>
       </c>
-      <c r="AS14" s="301">
+      <c r="AS14" s="297">
         <v>1</v>
       </c>
-      <c r="AT14" s="302">
+      <c r="AT14" s="298">
         <v>0</v>
       </c>
     </row>
@@ -18917,7 +18886,7 @@
       <c r="P19" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="R19" s="357" t="s">
+      <c r="R19" s="366" t="s">
         <v>30</v>
       </c>
       <c r="S19" s="111"/>
@@ -18951,7 +18920,7 @@
       <c r="AH19" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="AJ19" s="357" t="s">
+      <c r="AJ19" s="366" t="s">
         <v>30</v>
       </c>
       <c r="AK19" s="111"/>
@@ -18969,12 +18938,12 @@
       <c r="M20" s="17"/>
       <c r="O20" s="57"/>
       <c r="P20" s="105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q20" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="R20" s="358"/>
+      <c r="R20" s="367"/>
       <c r="S20" s="111"/>
       <c r="T20" s="110"/>
       <c r="U20" s="12"/>
@@ -18988,12 +18957,12 @@
       <c r="AE20" s="17"/>
       <c r="AG20" s="57"/>
       <c r="AH20" s="105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AI20" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AJ20" s="358"/>
+      <c r="AJ20" s="367"/>
       <c r="AK20" s="111"/>
     </row>
     <row r="21" spans="2:37" ht="30" customHeight="1" thickBot="1">
@@ -19012,7 +18981,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="58"/>
       <c r="P21" s="106"/>
-      <c r="R21" s="359"/>
+      <c r="R21" s="368"/>
       <c r="S21" s="111"/>
       <c r="T21" s="110"/>
       <c r="U21" s="10"/>
@@ -19029,7 +18998,7 @@
       <c r="AF21" s="11"/>
       <c r="AG21" s="58"/>
       <c r="AH21" s="106"/>
-      <c r="AJ21" s="359"/>
+      <c r="AJ21" s="368"/>
       <c r="AK21" s="111"/>
     </row>
     <row r="22" spans="2:37" ht="15.75" thickBot="1">
@@ -19129,47 +19098,47 @@
     <row r="25" spans="2:37" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="110"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="340" t="s">
+      <c r="D25" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="341"/>
-      <c r="F25" s="341"/>
-      <c r="G25" s="341"/>
-      <c r="H25" s="341"/>
-      <c r="I25" s="341"/>
-      <c r="J25" s="341"/>
-      <c r="K25" s="341"/>
-      <c r="L25" s="341"/>
-      <c r="M25" s="341"/>
-      <c r="N25" s="342"/>
+      <c r="E25" s="355"/>
+      <c r="F25" s="355"/>
+      <c r="G25" s="355"/>
+      <c r="H25" s="355"/>
+      <c r="I25" s="355"/>
+      <c r="J25" s="355"/>
+      <c r="K25" s="355"/>
+      <c r="L25" s="355"/>
+      <c r="M25" s="355"/>
+      <c r="N25" s="356"/>
       <c r="O25" s="10"/>
       <c r="P25" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="R25" s="357" t="s">
+      <c r="R25" s="366" t="s">
         <v>30</v>
       </c>
       <c r="S25" s="111"/>
       <c r="T25" s="110"/>
       <c r="U25" s="10"/>
-      <c r="V25" s="340" t="s">
+      <c r="V25" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="W25" s="341"/>
-      <c r="X25" s="341"/>
-      <c r="Y25" s="341"/>
-      <c r="Z25" s="341"/>
-      <c r="AA25" s="341"/>
-      <c r="AB25" s="341"/>
-      <c r="AC25" s="341"/>
-      <c r="AD25" s="341"/>
-      <c r="AE25" s="341"/>
-      <c r="AF25" s="342"/>
+      <c r="W25" s="355"/>
+      <c r="X25" s="355"/>
+      <c r="Y25" s="355"/>
+      <c r="Z25" s="355"/>
+      <c r="AA25" s="355"/>
+      <c r="AB25" s="355"/>
+      <c r="AC25" s="355"/>
+      <c r="AD25" s="355"/>
+      <c r="AE25" s="355"/>
+      <c r="AF25" s="356"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AJ25" s="357" t="s">
+      <c r="AJ25" s="366" t="s">
         <v>30</v>
       </c>
       <c r="AK25" s="111"/>
@@ -19180,24 +19149,24 @@
       <c r="G26" s="51"/>
       <c r="O26" s="12"/>
       <c r="P26" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="R26" s="358"/>
+      <c r="R26" s="367"/>
       <c r="S26" s="111"/>
       <c r="T26" s="110"/>
       <c r="U26" s="12"/>
       <c r="AD26" s="51"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AI26" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AJ26" s="358"/>
+      <c r="AJ26" s="367"/>
       <c r="AK26" s="111"/>
     </row>
     <row r="27" spans="2:37" ht="30" customHeight="1" thickBot="1">
@@ -19216,7 +19185,7 @@
       <c r="M27" s="67"/>
       <c r="O27" s="12"/>
       <c r="P27" s="20"/>
-      <c r="R27" s="359"/>
+      <c r="R27" s="368"/>
       <c r="S27" s="111"/>
       <c r="T27" s="110"/>
       <c r="U27" s="12"/>
@@ -19233,7 +19202,7 @@
       <c r="AE27" s="67"/>
       <c r="AG27" s="12"/>
       <c r="AH27" s="20"/>
-      <c r="AJ27" s="359"/>
+      <c r="AJ27" s="368"/>
       <c r="AK27" s="111"/>
     </row>
     <row r="28" spans="2:37" ht="30" customHeight="1">
@@ -19495,7 +19464,7 @@
       <c r="P35" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="R35" s="357" t="s">
+      <c r="R35" s="366" t="s">
         <v>30</v>
       </c>
       <c r="S35" s="111"/>
@@ -19529,7 +19498,7 @@
       <c r="AH35" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="AJ35" s="357" t="s">
+      <c r="AJ35" s="366" t="s">
         <v>30</v>
       </c>
       <c r="AK35" s="111"/>
@@ -19547,12 +19516,12 @@
       <c r="M36" s="17"/>
       <c r="O36" s="57"/>
       <c r="P36" s="105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q36" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="R36" s="358"/>
+      <c r="R36" s="367"/>
       <c r="S36" s="111"/>
       <c r="T36" s="110"/>
       <c r="U36" s="12"/>
@@ -19566,12 +19535,12 @@
       <c r="AE36" s="17"/>
       <c r="AG36" s="57"/>
       <c r="AH36" s="105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AI36" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AJ36" s="358"/>
+      <c r="AJ36" s="367"/>
       <c r="AK36" s="111"/>
     </row>
     <row r="37" spans="2:37" ht="30" customHeight="1" thickBot="1">
@@ -19590,7 +19559,7 @@
       <c r="N37" s="11"/>
       <c r="O37" s="58"/>
       <c r="P37" s="106"/>
-      <c r="R37" s="359"/>
+      <c r="R37" s="368"/>
       <c r="S37" s="111"/>
       <c r="T37" s="110"/>
       <c r="U37" s="10"/>
@@ -19607,7 +19576,7 @@
       <c r="AF37" s="11"/>
       <c r="AG37" s="58"/>
       <c r="AH37" s="106"/>
-      <c r="AJ37" s="359"/>
+      <c r="AJ37" s="368"/>
       <c r="AK37" s="111"/>
     </row>
     <row r="38" spans="2:37" ht="15.75" thickBot="1">
@@ -19707,47 +19676,47 @@
     <row r="41" spans="2:37" ht="30" customHeight="1" thickBot="1">
       <c r="B41" s="110"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="340" t="s">
+      <c r="D41" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="341"/>
-      <c r="F41" s="341"/>
-      <c r="G41" s="341"/>
-      <c r="H41" s="341"/>
-      <c r="I41" s="341"/>
-      <c r="J41" s="341"/>
-      <c r="K41" s="341"/>
-      <c r="L41" s="341"/>
-      <c r="M41" s="341"/>
-      <c r="N41" s="342"/>
+      <c r="E41" s="355"/>
+      <c r="F41" s="355"/>
+      <c r="G41" s="355"/>
+      <c r="H41" s="355"/>
+      <c r="I41" s="355"/>
+      <c r="J41" s="355"/>
+      <c r="K41" s="355"/>
+      <c r="L41" s="355"/>
+      <c r="M41" s="355"/>
+      <c r="N41" s="356"/>
       <c r="O41" s="10"/>
       <c r="P41" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="R41" s="357" t="s">
+      <c r="R41" s="366" t="s">
         <v>30</v>
       </c>
       <c r="S41" s="111"/>
       <c r="T41" s="110"/>
       <c r="U41" s="10"/>
-      <c r="V41" s="340" t="s">
+      <c r="V41" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="W41" s="341"/>
-      <c r="X41" s="341"/>
-      <c r="Y41" s="341"/>
-      <c r="Z41" s="341"/>
-      <c r="AA41" s="341"/>
-      <c r="AB41" s="341"/>
-      <c r="AC41" s="341"/>
-      <c r="AD41" s="341"/>
-      <c r="AE41" s="341"/>
-      <c r="AF41" s="342"/>
+      <c r="W41" s="355"/>
+      <c r="X41" s="355"/>
+      <c r="Y41" s="355"/>
+      <c r="Z41" s="355"/>
+      <c r="AA41" s="355"/>
+      <c r="AB41" s="355"/>
+      <c r="AC41" s="355"/>
+      <c r="AD41" s="355"/>
+      <c r="AE41" s="355"/>
+      <c r="AF41" s="356"/>
       <c r="AG41" s="10"/>
       <c r="AH41" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AJ41" s="357" t="s">
+      <c r="AJ41" s="366" t="s">
         <v>30</v>
       </c>
       <c r="AK41" s="111"/>
@@ -19758,24 +19727,24 @@
       <c r="G42" s="51"/>
       <c r="O42" s="12"/>
       <c r="P42" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q42" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="R42" s="358"/>
+      <c r="R42" s="367"/>
       <c r="S42" s="111"/>
       <c r="T42" s="110"/>
       <c r="U42" s="12"/>
       <c r="AD42" s="51"/>
       <c r="AG42" s="12"/>
       <c r="AH42" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AI42" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AJ42" s="358"/>
+      <c r="AJ42" s="367"/>
       <c r="AK42" s="111"/>
     </row>
     <row r="43" spans="2:37" ht="30" customHeight="1" thickBot="1">
@@ -19794,7 +19763,7 @@
       <c r="M43" s="67"/>
       <c r="O43" s="12"/>
       <c r="P43" s="20"/>
-      <c r="R43" s="359"/>
+      <c r="R43" s="368"/>
       <c r="S43" s="111"/>
       <c r="T43" s="110"/>
       <c r="U43" s="12"/>
@@ -19811,7 +19780,7 @@
       <c r="AE43" s="67"/>
       <c r="AG43" s="12"/>
       <c r="AH43" s="20"/>
-      <c r="AJ43" s="359"/>
+      <c r="AJ43" s="368"/>
       <c r="AK43" s="111"/>
     </row>
     <row r="44" spans="2:37" ht="30" customHeight="1">
@@ -20073,7 +20042,7 @@
       <c r="P51" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="R51" s="357" t="s">
+      <c r="R51" s="366" t="s">
         <v>30</v>
       </c>
       <c r="S51" s="111"/>
@@ -20107,7 +20076,7 @@
       <c r="AH51" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="AJ51" s="357" t="s">
+      <c r="AJ51" s="366" t="s">
         <v>30</v>
       </c>
       <c r="AK51" s="111"/>
@@ -20125,12 +20094,12 @@
       <c r="M52" s="17"/>
       <c r="O52" s="57"/>
       <c r="P52" s="105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q52" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="R52" s="358"/>
+      <c r="R52" s="367"/>
       <c r="S52" s="111"/>
       <c r="T52" s="110"/>
       <c r="U52" s="12"/>
@@ -20144,12 +20113,12 @@
       <c r="AE52" s="17"/>
       <c r="AG52" s="57"/>
       <c r="AH52" s="105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AI52" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="AJ52" s="358"/>
+      <c r="AJ52" s="367"/>
       <c r="AK52" s="111"/>
     </row>
     <row r="53" spans="2:37" ht="30" customHeight="1" thickBot="1">
@@ -20168,7 +20137,7 @@
       <c r="N53" s="11"/>
       <c r="O53" s="58"/>
       <c r="P53" s="106"/>
-      <c r="R53" s="359"/>
+      <c r="R53" s="368"/>
       <c r="S53" s="111"/>
       <c r="T53" s="110"/>
       <c r="U53" s="10"/>
@@ -20185,7 +20154,7 @@
       <c r="AF53" s="11"/>
       <c r="AG53" s="58"/>
       <c r="AH53" s="106"/>
-      <c r="AJ53" s="359"/>
+      <c r="AJ53" s="368"/>
       <c r="AK53" s="111"/>
     </row>
     <row r="54" spans="2:37" ht="15.75" thickBot="1">
@@ -20285,47 +20254,47 @@
     <row r="57" spans="2:37" ht="30" customHeight="1" thickBot="1">
       <c r="B57" s="110"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="340" t="s">
+      <c r="D57" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="341"/>
-      <c r="F57" s="341"/>
-      <c r="G57" s="341"/>
-      <c r="H57" s="341"/>
-      <c r="I57" s="341"/>
-      <c r="J57" s="341"/>
-      <c r="K57" s="341"/>
-      <c r="L57" s="341"/>
-      <c r="M57" s="341"/>
-      <c r="N57" s="342"/>
+      <c r="E57" s="355"/>
+      <c r="F57" s="355"/>
+      <c r="G57" s="355"/>
+      <c r="H57" s="355"/>
+      <c r="I57" s="355"/>
+      <c r="J57" s="355"/>
+      <c r="K57" s="355"/>
+      <c r="L57" s="355"/>
+      <c r="M57" s="355"/>
+      <c r="N57" s="356"/>
       <c r="O57" s="10"/>
       <c r="P57" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="R57" s="357" t="s">
+      <c r="R57" s="366" t="s">
         <v>30</v>
       </c>
       <c r="S57" s="111"/>
       <c r="T57" s="110"/>
       <c r="U57" s="10"/>
-      <c r="V57" s="340" t="s">
+      <c r="V57" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="W57" s="341"/>
-      <c r="X57" s="341"/>
-      <c r="Y57" s="341"/>
-      <c r="Z57" s="341"/>
-      <c r="AA57" s="341"/>
-      <c r="AB57" s="341"/>
-      <c r="AC57" s="341"/>
-      <c r="AD57" s="341"/>
-      <c r="AE57" s="341"/>
-      <c r="AF57" s="342"/>
+      <c r="W57" s="355"/>
+      <c r="X57" s="355"/>
+      <c r="Y57" s="355"/>
+      <c r="Z57" s="355"/>
+      <c r="AA57" s="355"/>
+      <c r="AB57" s="355"/>
+      <c r="AC57" s="355"/>
+      <c r="AD57" s="355"/>
+      <c r="AE57" s="355"/>
+      <c r="AF57" s="356"/>
       <c r="AG57" s="10"/>
       <c r="AH57" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AJ57" s="357" t="s">
+      <c r="AJ57" s="366" t="s">
         <v>30</v>
       </c>
       <c r="AK57" s="111"/>
@@ -20336,24 +20305,24 @@
       <c r="G58" s="51"/>
       <c r="O58" s="12"/>
       <c r="P58" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q58" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="R58" s="358"/>
+      <c r="R58" s="367"/>
       <c r="S58" s="111"/>
       <c r="T58" s="110"/>
       <c r="U58" s="12"/>
       <c r="AD58" s="51"/>
       <c r="AG58" s="12"/>
       <c r="AH58" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AI58" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="AJ58" s="358"/>
+      <c r="AJ58" s="367"/>
       <c r="AK58" s="111"/>
     </row>
     <row r="59" spans="2:37" ht="30" customHeight="1" thickBot="1">
@@ -20372,7 +20341,7 @@
       <c r="M59" s="67"/>
       <c r="O59" s="12"/>
       <c r="P59" s="20"/>
-      <c r="R59" s="359"/>
+      <c r="R59" s="368"/>
       <c r="S59" s="111"/>
       <c r="T59" s="110"/>
       <c r="U59" s="12"/>
@@ -20389,7 +20358,7 @@
       <c r="AE59" s="67"/>
       <c r="AG59" s="12"/>
       <c r="AH59" s="20"/>
-      <c r="AJ59" s="359"/>
+      <c r="AJ59" s="368"/>
       <c r="AK59" s="111"/>
     </row>
     <row r="60" spans="2:37" ht="30" customHeight="1">
@@ -20651,7 +20620,7 @@
       <c r="P67" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="R67" s="357" t="s">
+      <c r="R67" s="366" t="s">
         <v>30</v>
       </c>
       <c r="S67" s="111"/>
@@ -20685,7 +20654,7 @@
       <c r="AH67" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="AJ67" s="357" t="s">
+      <c r="AJ67" s="366" t="s">
         <v>30</v>
       </c>
       <c r="AK67" s="111"/>
@@ -20703,12 +20672,12 @@
       <c r="M68" s="17"/>
       <c r="O68" s="57"/>
       <c r="P68" s="105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q68" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="R68" s="358"/>
+      <c r="R68" s="367"/>
       <c r="S68" s="111"/>
       <c r="T68" s="110"/>
       <c r="U68" s="12"/>
@@ -20722,12 +20691,12 @@
       <c r="AE68" s="17"/>
       <c r="AG68" s="57"/>
       <c r="AH68" s="105" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AI68" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="AJ68" s="358"/>
+      <c r="AJ68" s="367"/>
       <c r="AK68" s="111"/>
     </row>
     <row r="69" spans="2:37" ht="30" customHeight="1" thickBot="1">
@@ -20746,7 +20715,7 @@
       <c r="N69" s="11"/>
       <c r="O69" s="58"/>
       <c r="P69" s="106"/>
-      <c r="R69" s="359"/>
+      <c r="R69" s="368"/>
       <c r="S69" s="111"/>
       <c r="T69" s="110"/>
       <c r="U69" s="10"/>
@@ -20763,7 +20732,7 @@
       <c r="AF69" s="11"/>
       <c r="AG69" s="58"/>
       <c r="AH69" s="106"/>
-      <c r="AJ69" s="359"/>
+      <c r="AJ69" s="368"/>
       <c r="AK69" s="111"/>
     </row>
     <row r="70" spans="2:37" ht="15.75" thickBot="1">
@@ -20807,17 +20776,6 @@
     <row r="71" spans="2:37" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AJ35:AJ37"/>
-    <mergeCell ref="V41:AF41"/>
-    <mergeCell ref="AJ41:AJ43"/>
-    <mergeCell ref="AJ51:AJ53"/>
-    <mergeCell ref="V57:AF57"/>
-    <mergeCell ref="AJ57:AJ59"/>
-    <mergeCell ref="V9:AF9"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AJ19:AJ21"/>
-    <mergeCell ref="V25:AF25"/>
-    <mergeCell ref="AJ25:AJ27"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AS5:AT5"/>
@@ -20834,6 +20792,17 @@
     <mergeCell ref="D57:N57"/>
     <mergeCell ref="R57:R59"/>
     <mergeCell ref="AJ67:AJ69"/>
+    <mergeCell ref="V9:AF9"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AJ19:AJ21"/>
+    <mergeCell ref="V25:AF25"/>
+    <mergeCell ref="AJ25:AJ27"/>
+    <mergeCell ref="AJ35:AJ37"/>
+    <mergeCell ref="V41:AF41"/>
+    <mergeCell ref="AJ41:AJ43"/>
+    <mergeCell ref="AJ51:AJ53"/>
+    <mergeCell ref="V57:AF57"/>
+    <mergeCell ref="AJ57:AJ59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20884,90 +20853,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="I1" s="360" t="s">
-        <v>408</v>
-      </c>
-      <c r="J1" s="361"/>
+      <c r="I1" s="374" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1" s="375"/>
     </row>
     <row r="2" spans="1:11">
       <c r="I2" s="137" t="s">
-        <v>402</v>
-      </c>
-      <c r="J2" s="232">
+        <v>397</v>
+      </c>
+      <c r="J2" s="230">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="I3" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J3" s="317">
+        <v>495</v>
+      </c>
+      <c r="J3" s="313">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="I4" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="J4" s="318">
+        <v>494</v>
+      </c>
+      <c r="J4" s="314">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="I5" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J5" s="233">
+        <v>398</v>
+      </c>
+      <c r="J5" s="231">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="I6" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J6" s="234">
+        <v>386</v>
+      </c>
+      <c r="J6" s="232">
         <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="I7" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J7" s="235">
+        <v>399</v>
+      </c>
+      <c r="J7" s="233">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="I8" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J8" s="236">
+        <v>404</v>
+      </c>
+      <c r="J8" s="234">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="I9" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J9" s="238">
+        <v>404</v>
+      </c>
+      <c r="J9" s="236">
         <f>J8*9.81/1000</f>
         <v>9.81</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="I10" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J10" s="237">
+        <v>405</v>
+      </c>
+      <c r="J10" s="235">
         <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
       <c r="A12" s="116"/>
@@ -20977,10 +20946,10 @@
       <c r="E12" s="116"/>
       <c r="F12" s="116"/>
       <c r="G12" s="116"/>
-      <c r="I12" s="185" t="s">
-        <v>405</v>
-      </c>
-      <c r="J12" s="250">
+      <c r="I12" s="183" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="246">
         <f>J2*1000/(2*J6*J5*J7)</f>
         <v>2.0270270270270272</v>
       </c>
@@ -21001,10 +20970,10 @@
         <v>146</v>
       </c>
       <c r="G13" s="116"/>
-      <c r="I13" s="140" t="s">
-        <v>406</v>
-      </c>
-      <c r="J13" s="251">
+      <c r="I13" s="138" t="s">
+        <v>401</v>
+      </c>
+      <c r="J13" s="247">
         <f>2*J6*J5/J2</f>
         <v>2.4666666666666668</v>
       </c>
@@ -21021,10 +20990,10 @@
       <c r="E14" s="120"/>
       <c r="F14" s="121"/>
       <c r="G14" s="116"/>
-      <c r="I14" s="140" t="s">
-        <v>407</v>
-      </c>
-      <c r="J14" s="252">
+      <c r="I14" s="138" t="s">
+        <v>402</v>
+      </c>
+      <c r="J14" s="248">
         <f>J5*J2</f>
         <v>4.8000000000000007</v>
       </c>
@@ -21041,10 +21010,10 @@
         <v>138</v>
       </c>
       <c r="G15" s="116"/>
-      <c r="I15" s="154" t="s">
-        <v>411</v>
-      </c>
-      <c r="J15" s="253">
+      <c r="I15" s="152" t="s">
+        <v>406</v>
+      </c>
+      <c r="J15" s="249">
         <f>0.5*J9*J10</f>
         <v>2.9430000000000001</v>
       </c>
@@ -21095,97 +21064,97 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:10">
-      <c r="I21" s="181" t="s">
-        <v>501</v>
-      </c>
-      <c r="J21" s="181" t="s">
-        <v>502</v>
+      <c r="I21" s="179" t="s">
+        <v>496</v>
+      </c>
+      <c r="J21" s="179" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="I22" s="319">
+      <c r="I22" s="315">
         <v>1</v>
       </c>
-      <c r="J22" s="323">
+      <c r="J22" s="319">
         <f>$J$3*SIN(PI()/(2*I22))</f>
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="I23" s="319">
+      <c r="I23" s="315">
         <v>2</v>
       </c>
-      <c r="J23" s="323">
+      <c r="J23" s="319">
         <f t="shared" ref="J23:J30" si="0">$J$3*SIN(PI()/(2*I23))</f>
         <v>18.384776310850235</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
-      <c r="I24" s="320">
+      <c r="I24" s="316">
         <f t="shared" ref="I24:I30" si="1">2*I23</f>
         <v>4</v>
       </c>
-      <c r="J24" s="324">
+      <c r="J24" s="320">
         <f t="shared" si="0"/>
         <v>9.9497692414923335</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="I25" s="321">
+      <c r="I25" s="317">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J25" s="325">
+      <c r="J25" s="321">
         <f t="shared" si="0"/>
         <v>5.0723483724193343</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="I26" s="322">
+      <c r="I26" s="318">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J26" s="326">
+      <c r="J26" s="322">
         <f t="shared" si="0"/>
         <v>2.5484456485685758</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="I27" s="319">
+      <c r="I27" s="315">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="J27" s="323">
+      <c r="J27" s="319">
         <f t="shared" si="0"/>
         <v>1.2757595325128683</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="I28" s="319">
+      <c r="I28" s="315">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="J28" s="323">
+      <c r="J28" s="319">
         <f t="shared" si="0"/>
         <v>0.63807194159571945</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="I29" s="319">
+      <c r="I29" s="315">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="J29" s="323">
+      <c r="J29" s="319">
         <f t="shared" si="0"/>
         <v>0.31905999542871805</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="I30" s="319">
+      <c r="I30" s="315">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="J30" s="323">
+      <c r="J30" s="319">
         <f t="shared" si="0"/>
         <v>0.15953300087801636</v>
       </c>
@@ -21214,179 +21183,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B1" s="362" t="s">
+      <c r="B1" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="364"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="378"/>
     </row>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B2" s="220" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="221" t="s">
-        <v>369</v>
-      </c>
-      <c r="D2" s="222" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="231" t="s">
-        <v>371</v>
-      </c>
-      <c r="G2" s="360" t="s">
-        <v>381</v>
-      </c>
-      <c r="H2" s="361"/>
+      <c r="B2" s="218" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="219" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="229" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" s="374" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="375"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="189" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" s="190" t="s">
-        <v>372</v>
-      </c>
-      <c r="E3" s="188" t="s">
-        <v>374</v>
-      </c>
-      <c r="G3" s="187" t="s">
-        <v>383</v>
-      </c>
-      <c r="H3" s="233">
+      <c r="B3" s="187" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="185" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="188" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="186" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="185" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="231">
         <v>0.8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="K3" s="212">
+        <v>382</v>
+      </c>
+      <c r="K3" s="210">
         <v>30</v>
       </c>
-      <c r="L3" s="212">
+      <c r="L3" s="210">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="191" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="181" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="192" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="182" t="s">
+      <c r="B4" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="179" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="190" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="180" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" s="185" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="231">
+        <v>1</v>
+      </c>
+      <c r="I4" s="195" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="189" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="190" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="180" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" s="179" t="s">
         <v>375</v>
       </c>
-      <c r="G4" s="187" t="s">
-        <v>382</v>
-      </c>
-      <c r="H4" s="233">
-        <v>1</v>
-      </c>
-      <c r="I4" s="197" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="191" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="181" t="s">
-        <v>373</v>
-      </c>
-      <c r="D5" s="192" t="s">
-        <v>372</v>
-      </c>
-      <c r="E5" s="182" t="s">
-        <v>376</v>
-      </c>
-      <c r="G5" s="181" t="s">
-        <v>380</v>
-      </c>
-      <c r="H5" s="239">
+      <c r="H5" s="237">
         <f>H4*2</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="238" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="239" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="240" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="241" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="189" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="179" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="190" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="180" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="190" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="180" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="241" t="s">
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="189" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="179" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="190" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="180" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="242" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" s="243" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="191" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="181" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" s="192" t="s">
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B10" s="191" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="192" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="193" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="180" t="s">
         <v>373</v>
-      </c>
-      <c r="E7" s="182" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="191" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="181" t="s">
-        <v>372</v>
-      </c>
-      <c r="D8" s="192" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="182" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="191" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" s="181" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" s="192" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" s="182" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B10" s="193" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="194" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="195" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" s="182" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -21417,16 +21386,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C1" s="347" t="s">
-        <v>496</v>
-      </c>
-      <c r="D1" s="348"/>
+      <c r="C1" s="361" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" s="362"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="194" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="244">
+      <c r="D2" s="242">
         <v>12.1</v>
       </c>
       <c r="E2" s="126" t="s">
@@ -21434,10 +21403,10 @@
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="C3" s="183" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="244">
+      <c r="C3" s="181" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="242">
         <v>5</v>
       </c>
       <c r="M3" s="127"/>
@@ -21469,9 +21438,9 @@
     </row>
     <row r="4" spans="2:22">
       <c r="C4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="244">
+        <v>159</v>
+      </c>
+      <c r="D4" s="242">
         <v>6</v>
       </c>
       <c r="M4" s="130" t="s">
@@ -21541,9 +21510,9 @@
     </row>
     <row r="6" spans="2:22">
       <c r="C6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="244">
+        <v>160</v>
+      </c>
+      <c r="D6" s="242">
         <v>2</v>
       </c>
       <c r="M6" s="134">
@@ -21552,20 +21521,20 @@
       <c r="N6" s="135">
         <v>8</v>
       </c>
-      <c r="O6" s="281"/>
-      <c r="P6" s="281"/>
-      <c r="Q6" s="281"/>
-      <c r="R6" s="281"/>
-      <c r="S6" s="281"/>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="281"/>
+      <c r="O6" s="277"/>
+      <c r="P6" s="277"/>
+      <c r="Q6" s="277"/>
+      <c r="R6" s="277"/>
+      <c r="S6" s="277"/>
+      <c r="T6" s="277"/>
+      <c r="U6" s="277"/>
+      <c r="V6" s="277"/>
     </row>
     <row r="7" spans="2:22">
       <c r="C7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="315">
+        <v>359</v>
+      </c>
+      <c r="D7" s="311">
         <v>20</v>
       </c>
       <c r="M7" s="134">
@@ -21574,20 +21543,20 @@
       <c r="N7" s="135">
         <v>7</v>
       </c>
-      <c r="O7" s="281"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="281"/>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
+      <c r="O7" s="277"/>
+      <c r="P7" s="277"/>
+      <c r="Q7" s="277"/>
+      <c r="R7" s="277"/>
+      <c r="S7" s="277"/>
+      <c r="T7" s="277"/>
+      <c r="U7" s="277"/>
+      <c r="V7" s="277"/>
     </row>
     <row r="8" spans="2:22">
       <c r="C8" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D8" s="235">
+        <v>360</v>
+      </c>
+      <c r="D8" s="233">
         <v>200</v>
       </c>
       <c r="M8" s="134">
@@ -21596,20 +21565,20 @@
       <c r="N8" s="135">
         <v>6</v>
       </c>
-      <c r="O8" s="281"/>
-      <c r="P8" s="281"/>
-      <c r="Q8" s="281"/>
-      <c r="R8" s="281"/>
-      <c r="S8" s="281"/>
-      <c r="T8" s="281"/>
-      <c r="U8" s="281"/>
-      <c r="V8" s="281"/>
+      <c r="O8" s="277"/>
+      <c r="P8" s="277"/>
+      <c r="Q8" s="277"/>
+      <c r="R8" s="277"/>
+      <c r="S8" s="277"/>
+      <c r="T8" s="277"/>
+      <c r="U8" s="277"/>
+      <c r="V8" s="277"/>
     </row>
     <row r="9" spans="2:22">
       <c r="C9" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D9" s="235">
+        <v>361</v>
+      </c>
+      <c r="D9" s="233">
         <v>8</v>
       </c>
       <c r="M9" s="134">
@@ -21618,20 +21587,20 @@
       <c r="N9" s="135">
         <v>5</v>
       </c>
-      <c r="O9" s="281"/>
-      <c r="P9" s="281"/>
-      <c r="Q9" s="281"/>
-      <c r="R9" s="281"/>
-      <c r="S9" s="281"/>
-      <c r="T9" s="281"/>
-      <c r="U9" s="281"/>
-      <c r="V9" s="281"/>
+      <c r="O9" s="277"/>
+      <c r="P9" s="277"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="277"/>
+      <c r="S9" s="277"/>
+      <c r="T9" s="277"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="244">
+      <c r="D10" s="242">
         <v>37</v>
       </c>
       <c r="M10" s="134">
@@ -21640,20 +21609,20 @@
       <c r="N10" s="135">
         <v>4</v>
       </c>
-      <c r="O10" s="281"/>
-      <c r="P10" s="281"/>
-      <c r="Q10" s="281"/>
-      <c r="R10" s="281"/>
-      <c r="S10" s="281"/>
-      <c r="T10" s="281"/>
-      <c r="U10" s="281"/>
-      <c r="V10" s="281"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="C11" s="185" t="s">
-        <v>495</v>
-      </c>
-      <c r="D11" s="327">
+      <c r="C11" s="183" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" s="323">
         <f>D8*D9/(D6*D7)</f>
         <v>40</v>
       </c>
@@ -21663,20 +21632,20 @@
       <c r="N11" s="135">
         <v>3</v>
       </c>
-      <c r="O11" s="281"/>
-      <c r="P11" s="281"/>
-      <c r="Q11" s="281"/>
-      <c r="R11" s="281"/>
-      <c r="S11" s="281"/>
-      <c r="T11" s="281"/>
-      <c r="U11" s="281"/>
-      <c r="V11" s="281"/>
+      <c r="O11" s="277"/>
+      <c r="P11" s="277"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="277"/>
+      <c r="S11" s="277"/>
+      <c r="T11" s="277"/>
+      <c r="U11" s="277"/>
+      <c r="V11" s="277"/>
     </row>
     <row r="12" spans="2:22">
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="267">
         <f>ROUND(D11*D10,0)</f>
         <v>1480</v>
       </c>
@@ -21686,25 +21655,25 @@
       <c r="N12" s="135">
         <v>2</v>
       </c>
-      <c r="O12" s="281"/>
-      <c r="P12" s="281"/>
-      <c r="Q12" s="281"/>
-      <c r="R12" s="281"/>
-      <c r="S12" s="281"/>
-      <c r="T12" s="281"/>
-      <c r="U12" s="281"/>
-      <c r="V12" s="281"/>
+      <c r="O12" s="277"/>
+      <c r="P12" s="277"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="277"/>
+      <c r="S12" s="277"/>
+      <c r="T12" s="277"/>
+      <c r="U12" s="277"/>
+      <c r="V12" s="277"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C13" s="294" t="s">
-        <v>467</v>
-      </c>
-      <c r="D13" s="270">
+      <c r="C13" s="290" t="s">
+        <v>462</v>
+      </c>
+      <c r="D13" s="266">
         <f>D12/D9</f>
         <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M13" s="134">
         <v>1</v>
@@ -21712,298 +21681,298 @@
       <c r="N13" s="135">
         <v>1</v>
       </c>
-      <c r="O13" s="282"/>
-      <c r="P13" s="282"/>
-      <c r="Q13" s="282"/>
-      <c r="R13" s="282"/>
-      <c r="S13" s="282"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="282"/>
-      <c r="V13" s="282"/>
+      <c r="O13" s="278"/>
+      <c r="P13" s="278"/>
+      <c r="Q13" s="278"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="278"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1">
-      <c r="D14" s="186"/>
+      <c r="D14" s="184"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="C15" s="185" t="s">
-        <v>445</v>
-      </c>
-      <c r="D15" s="272">
+      <c r="C15" s="183" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="268">
         <v>1</v>
       </c>
-      <c r="M15" s="293" t="s">
-        <v>453</v>
-      </c>
-      <c r="N15" s="283"/>
-      <c r="O15" s="283"/>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="283"/>
-      <c r="R15" s="284"/>
+      <c r="M15" s="289" t="s">
+        <v>448</v>
+      </c>
+      <c r="N15" s="279"/>
+      <c r="O15" s="279"/>
+      <c r="P15" s="279"/>
+      <c r="Q15" s="279"/>
+      <c r="R15" s="280"/>
     </row>
     <row r="16" spans="2:22">
       <c r="B16" t="s">
-        <v>452</v>
-      </c>
-      <c r="C16" s="295" t="s">
-        <v>466</v>
-      </c>
-      <c r="D16" s="276">
+        <v>447</v>
+      </c>
+      <c r="C16" s="291" t="s">
+        <v>461</v>
+      </c>
+      <c r="D16" s="272">
         <f>SQRT(D15^2+D15^2)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="M16" s="285" t="s">
-        <v>440</v>
-      </c>
-      <c r="N16" s="286"/>
-      <c r="O16" s="286"/>
-      <c r="P16" s="286"/>
-      <c r="Q16" s="286"/>
-      <c r="R16" s="287"/>
+      <c r="M16" s="281" t="s">
+        <v>435</v>
+      </c>
+      <c r="N16" s="282"/>
+      <c r="O16" s="282"/>
+      <c r="P16" s="282"/>
+      <c r="Q16" s="282"/>
+      <c r="R16" s="283"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="C17" s="140" t="s">
-        <v>444</v>
-      </c>
-      <c r="D17" s="273">
+      <c r="C17" s="138" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17" s="269">
         <v>37</v>
       </c>
-      <c r="M17" s="285" t="s">
-        <v>437</v>
-      </c>
-      <c r="N17" s="286"/>
-      <c r="O17" s="286"/>
-      <c r="P17" s="286"/>
-      <c r="Q17" s="286" t="s">
-        <v>434</v>
-      </c>
-      <c r="R17" s="287" t="s">
-        <v>441</v>
+      <c r="M17" s="281" t="s">
+        <v>432</v>
+      </c>
+      <c r="N17" s="282"/>
+      <c r="O17" s="282"/>
+      <c r="P17" s="282"/>
+      <c r="Q17" s="282" t="s">
+        <v>429</v>
+      </c>
+      <c r="R17" s="283" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C18" s="154" t="s">
-        <v>443</v>
-      </c>
-      <c r="D18" s="275">
+      <c r="C18" s="152" t="s">
+        <v>438</v>
+      </c>
+      <c r="D18" s="271">
         <f>D17*SQRT(2)</f>
         <v>52.32590180780452</v>
       </c>
-      <c r="M18" s="285" t="s">
-        <v>438</v>
-      </c>
-      <c r="N18" s="286"/>
-      <c r="O18" s="286"/>
-      <c r="P18" s="286"/>
-      <c r="Q18" s="286"/>
-      <c r="R18" s="287"/>
+      <c r="M18" s="281" t="s">
+        <v>433</v>
+      </c>
+      <c r="N18" s="282"/>
+      <c r="O18" s="282"/>
+      <c r="P18" s="282"/>
+      <c r="Q18" s="282"/>
+      <c r="R18" s="283"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="G19" s="217"/>
-      <c r="M19" s="285" t="s">
-        <v>439</v>
-      </c>
-      <c r="N19" s="286"/>
-      <c r="O19" s="286"/>
-      <c r="P19" s="286"/>
-      <c r="Q19" s="286" t="s">
-        <v>436</v>
-      </c>
-      <c r="R19" s="287" t="s">
-        <v>435</v>
+      <c r="G19" s="215"/>
+      <c r="M19" s="281" t="s">
+        <v>434</v>
+      </c>
+      <c r="N19" s="282"/>
+      <c r="O19" s="282"/>
+      <c r="P19" s="282"/>
+      <c r="Q19" s="282" t="s">
+        <v>431</v>
+      </c>
+      <c r="R19" s="283" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="2:18">
-      <c r="C20" s="185" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" s="274">
+      <c r="C20" s="183" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" s="270">
         <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>449</v>
-      </c>
-      <c r="M20" s="285"/>
-      <c r="N20" s="286"/>
-      <c r="O20" s="286"/>
-      <c r="P20" s="286"/>
-      <c r="Q20" s="286"/>
-      <c r="R20" s="287"/>
+        <v>444</v>
+      </c>
+      <c r="M20" s="281"/>
+      <c r="N20" s="282"/>
+      <c r="O20" s="282"/>
+      <c r="P20" s="282"/>
+      <c r="Q20" s="282"/>
+      <c r="R20" s="283"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="C21" s="140" t="s">
-        <v>446</v>
-      </c>
-      <c r="D21" s="273">
+      <c r="C21" s="138" t="s">
+        <v>441</v>
+      </c>
+      <c r="D21" s="269">
         <v>262</v>
       </c>
       <c r="E21" t="s">
-        <v>449</v>
-      </c>
-      <c r="M21" s="285" t="s">
-        <v>442</v>
-      </c>
-      <c r="N21" s="286"/>
-      <c r="O21" s="286"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="286"/>
-      <c r="R21" s="287"/>
+        <v>444</v>
+      </c>
+      <c r="M21" s="281" t="s">
+        <v>437</v>
+      </c>
+      <c r="N21" s="282"/>
+      <c r="O21" s="282"/>
+      <c r="P21" s="282"/>
+      <c r="Q21" s="282"/>
+      <c r="R21" s="283"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" thickBot="1">
       <c r="B22" t="s">
-        <v>452</v>
-      </c>
-      <c r="C22" s="154" t="s">
         <v>447</v>
       </c>
-      <c r="D22" s="275">
+      <c r="C22" s="152" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="271">
         <f>SQRT(D21^2+D21^2)</f>
         <v>370.52395334175088</v>
       </c>
-      <c r="M22" s="288" t="s">
-        <v>448</v>
-      </c>
-      <c r="N22" s="289"/>
-      <c r="O22" s="289"/>
-      <c r="P22" s="289"/>
-      <c r="Q22" s="289"/>
-      <c r="R22" s="290"/>
+      <c r="M22" s="284" t="s">
+        <v>443</v>
+      </c>
+      <c r="N22" s="285"/>
+      <c r="O22" s="285"/>
+      <c r="P22" s="285"/>
+      <c r="Q22" s="285"/>
+      <c r="R22" s="286"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" thickBot="1">
-      <c r="N23" s="256"/>
+      <c r="N23" s="252"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="M24" s="293" t="s">
+      <c r="M24" s="289" t="s">
+        <v>449</v>
+      </c>
+      <c r="N24" s="287"/>
+      <c r="O24" s="279"/>
+      <c r="P24" s="279"/>
+      <c r="Q24" s="279"/>
+      <c r="R24" s="280"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="M25" s="281" t="s">
+        <v>455</v>
+      </c>
+      <c r="N25" s="282"/>
+      <c r="O25" s="282"/>
+      <c r="P25" s="282"/>
+      <c r="Q25" s="282"/>
+      <c r="R25" s="283"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="M26" s="281" t="s">
+        <v>456</v>
+      </c>
+      <c r="N26" s="282"/>
+      <c r="O26" s="282"/>
+      <c r="P26" s="282"/>
+      <c r="Q26" s="282" t="s">
+        <v>431</v>
+      </c>
+      <c r="R26" s="283" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="M27" s="281" t="s">
+        <v>450</v>
+      </c>
+      <c r="N27" s="282"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="282"/>
+      <c r="Q27" s="282"/>
+      <c r="R27" s="283"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="M28" s="281" t="s">
+        <v>451</v>
+      </c>
+      <c r="N28" s="282"/>
+      <c r="O28" s="282"/>
+      <c r="P28" s="282"/>
+      <c r="Q28" s="282" t="s">
+        <v>431</v>
+      </c>
+      <c r="R28" s="283" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="M29" s="281" t="s">
+        <v>457</v>
+      </c>
+      <c r="N29" s="282"/>
+      <c r="O29" s="282"/>
+      <c r="P29" s="282"/>
+      <c r="Q29" s="282"/>
+      <c r="R29" s="283"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="M30" s="281" t="s">
+        <v>458</v>
+      </c>
+      <c r="N30" s="282"/>
+      <c r="O30" s="282"/>
+      <c r="P30" s="282"/>
+      <c r="Q30" s="282" t="s">
+        <v>431</v>
+      </c>
+      <c r="R30" s="283" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="M31" s="281" t="s">
+        <v>453</v>
+      </c>
+      <c r="N31" s="282"/>
+      <c r="O31" s="282"/>
+      <c r="P31" s="282"/>
+      <c r="Q31" s="282"/>
+      <c r="R31" s="283"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="M32" s="281" t="s">
         <v>454</v>
       </c>
-      <c r="N24" s="291"/>
-      <c r="O24" s="283"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="283"/>
-      <c r="R24" s="284"/>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="M25" s="285" t="s">
-        <v>460</v>
-      </c>
-      <c r="N25" s="286"/>
-      <c r="O25" s="286"/>
-      <c r="P25" s="286"/>
-      <c r="Q25" s="286"/>
-      <c r="R25" s="287"/>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="M26" s="285" t="s">
-        <v>461</v>
-      </c>
-      <c r="N26" s="286"/>
-      <c r="O26" s="286"/>
-      <c r="P26" s="286"/>
-      <c r="Q26" s="286" t="s">
-        <v>436</v>
-      </c>
-      <c r="R26" s="287" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="M27" s="285" t="s">
-        <v>455</v>
-      </c>
-      <c r="N27" s="286"/>
-      <c r="O27" s="286"/>
-      <c r="P27" s="286"/>
-      <c r="Q27" s="286"/>
-      <c r="R27" s="287"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="M28" s="285" t="s">
-        <v>456</v>
-      </c>
-      <c r="N28" s="286"/>
-      <c r="O28" s="286"/>
-      <c r="P28" s="286"/>
-      <c r="Q28" s="286" t="s">
-        <v>436</v>
-      </c>
-      <c r="R28" s="287" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="M29" s="285" t="s">
-        <v>462</v>
-      </c>
-      <c r="N29" s="286"/>
-      <c r="O29" s="286"/>
-      <c r="P29" s="286"/>
-      <c r="Q29" s="286"/>
-      <c r="R29" s="287"/>
-    </row>
-    <row r="30" spans="2:18">
-      <c r="M30" s="285" t="s">
-        <v>463</v>
-      </c>
-      <c r="N30" s="286"/>
-      <c r="O30" s="286"/>
-      <c r="P30" s="286"/>
-      <c r="Q30" s="286" t="s">
-        <v>436</v>
-      </c>
-      <c r="R30" s="287" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="M31" s="285" t="s">
-        <v>458</v>
-      </c>
-      <c r="N31" s="286"/>
-      <c r="O31" s="286"/>
-      <c r="P31" s="286"/>
-      <c r="Q31" s="286"/>
-      <c r="R31" s="287"/>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="M32" s="285" t="s">
-        <v>459</v>
-      </c>
-      <c r="N32" s="286"/>
-      <c r="O32" s="286"/>
-      <c r="P32" s="286"/>
-      <c r="Q32" s="286" t="s">
-        <v>436</v>
-      </c>
-      <c r="R32" s="287" t="s">
-        <v>457</v>
+      <c r="N32" s="282"/>
+      <c r="O32" s="282"/>
+      <c r="P32" s="282"/>
+      <c r="Q32" s="282" t="s">
+        <v>431</v>
+      </c>
+      <c r="R32" s="283" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="3:18">
-      <c r="M33" s="292"/>
-      <c r="N33" s="286"/>
-      <c r="O33" s="286"/>
-      <c r="P33" s="286"/>
-      <c r="Q33" s="286"/>
-      <c r="R33" s="287"/>
+      <c r="M33" s="288"/>
+      <c r="N33" s="282"/>
+      <c r="O33" s="282"/>
+      <c r="P33" s="282"/>
+      <c r="Q33" s="282"/>
+      <c r="R33" s="283"/>
     </row>
     <row r="34" spans="3:18">
-      <c r="M34" s="285" t="s">
-        <v>442</v>
-      </c>
-      <c r="N34" s="286"/>
-      <c r="O34" s="286"/>
-      <c r="P34" s="286"/>
-      <c r="Q34" s="286"/>
-      <c r="R34" s="287"/>
+      <c r="M34" s="281" t="s">
+        <v>437</v>
+      </c>
+      <c r="N34" s="282"/>
+      <c r="O34" s="282"/>
+      <c r="P34" s="282"/>
+      <c r="Q34" s="282"/>
+      <c r="R34" s="283"/>
     </row>
     <row r="35" spans="3:18" ht="15.75" thickBot="1">
-      <c r="M35" s="288" t="s">
-        <v>503</v>
-      </c>
-      <c r="N35" s="289"/>
-      <c r="O35" s="289"/>
-      <c r="P35" s="289"/>
-      <c r="Q35" s="289"/>
-      <c r="R35" s="290"/>
+      <c r="M35" s="284" t="s">
+        <v>498</v>
+      </c>
+      <c r="N35" s="285"/>
+      <c r="O35" s="285"/>
+      <c r="P35" s="285"/>
+      <c r="Q35" s="285"/>
+      <c r="R35" s="286"/>
     </row>
     <row r="39" spans="3:18">
       <c r="O39">
@@ -22013,7 +21982,7 @@
     </row>
     <row r="43" spans="3:18">
       <c r="C43" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="3:18">
@@ -22037,191 +22006,298 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31850370-AFDC-4F0A-A5E0-EF69E9052E44}">
-  <dimension ref="B1:K26"/>
+  <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1">
       <c r="K1" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B2" s="347" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="348"/>
+      <c r="B2" s="361" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="362"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="245">
-        <v>1.4E-2</v>
+        <v>154</v>
+      </c>
+      <c r="C3" s="243">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="232">
-        <v>12</v>
+        <v>502</v>
+      </c>
+      <c r="C4" s="243">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="233">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="C6" s="136"/>
+        <v>152</v>
+      </c>
+      <c r="C5" s="230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="231">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="347" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="348"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="246">
+      <c r="B7" s="182" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="334">
+        <v>2500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B8" s="327" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" s="341">
+        <f>PI()*(C3/2)^2</f>
+        <v>1.1309733552923255E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+      <c r="C9" s="136"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B10" s="361" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="362"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="244">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="246">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="238">
-        <f>(C8+C9)*9.80665</f>
-        <v>0.58839899999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B12" s="347" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="348"/>
+    <row r="12" spans="2:11">
+      <c r="B12" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="243">
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13" s="243">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="335">
+        <v>1.2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="244">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="326">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C17" s="326">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B18" s="182" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="183" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" s="330">
+        <f>PI()*C13*(C12/2)^2</f>
+        <v>1.5079644737231005E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="138" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" s="331">
+        <f>C19*C16</f>
+        <v>1.1309733552923255E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="138" t="s">
+        <v>506</v>
+      </c>
+      <c r="C21" s="332">
+        <f>(C20+C15)*9.81</f>
+        <v>4.0524848615417719E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="138" t="s">
+        <v>508</v>
+      </c>
+      <c r="C22" s="332">
+        <f>C21*C17</f>
+        <v>8.1049697230835445E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B23" s="152" t="s">
+        <v>509</v>
+      </c>
+      <c r="C23" s="333">
+        <f>(C20+C15)*C18</f>
+        <v>4.1309733552923255E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B25" s="327" t="s">
+        <v>513</v>
+      </c>
+      <c r="C25" s="328">
+        <f>C21+C22+C23</f>
+        <v>5.2760791693793586E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="27" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B27" s="361" t="s">
+        <v>523</v>
+      </c>
+      <c r="C27" s="362"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="247">
+      <c r="C28" s="336">
         <f>4*PI()*10^-7</f>
         <v>1.2566370614359173E-6</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="247">
-        <v>495</v>
-      </c>
-      <c r="D14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="248">
-        <f>C5</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="249">
-        <f>PI()*(C3/2)^2</f>
-        <v>1.5393804002589989E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="247">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="238">
-        <f>(C13*C14^2*C15^2*C16)/(2*(C17^2))</f>
-        <v>148.12086387558637</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="138">
-        <f>C19/9.8</f>
-        <v>15.11437386485575</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <f>SQRT((C13*C14^2*C15^2*C16)/(2*C10))</f>
-        <v>1.586617189569432E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" s="136"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" s="138"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="C26" s="139"/>
+    <row r="29" spans="2:6">
+      <c r="B29" s="182" t="s">
+        <v>516</v>
+      </c>
+      <c r="C29" s="337">
+        <v>10</v>
+      </c>
+      <c r="F29" s="338"/>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B30" s="182" t="s">
+        <v>525</v>
+      </c>
+      <c r="C30" s="316">
+        <v>4</v>
+      </c>
+      <c r="F30" s="338"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="183" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" s="343">
+        <f>C19*C14/C28</f>
+        <v>0.14399999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B32" s="152" t="s">
+        <v>522</v>
+      </c>
+      <c r="C32" s="342">
+        <f>C7*C6*C8</f>
+        <v>3.675663404700058E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B34" s="327" t="s">
+        <v>514</v>
+      </c>
+      <c r="C34" s="328">
+        <f>3*C32*C31*C28/(2*PI()*((C3/2)+0)^C30)</f>
+        <v>2.4504422698000381</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B36" s="327" t="s">
+        <v>515</v>
+      </c>
+      <c r="C36" s="328">
+        <f>3*C32*C31*C28/(2*PI()*((C3/2)+C29/1000)^C30)</f>
+        <v>4.8458453089307393E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="F42" s="339"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="F45" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThanOrEqual">
-      <formula>$C$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
-      <formula>$C$10</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K1" r:id="rId1" xr:uid="{96C7FAA6-A10B-4533-9D82-BC29F3EF145B}"/>
   </hyperlinks>
